--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14897"/>
+    <workbookView windowWidth="16457" windowHeight="14751"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>seed</t>
   </si>
@@ -51,6 +51,9 @@
     <t>board</t>
   </si>
   <si>
+    <t>3407(k=8)</t>
+  </si>
+  <si>
     <t>desk</t>
   </si>
   <si>
@@ -67,7 +70,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +96,6 @@
       <color rgb="FFFF0000"/>
       <name val="华文细黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -603,48 +599,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,101 +653,98 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,9 +757,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,15 +766,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,12 +776,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,8 +1128,8 @@
   <sheetPr/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="7"/>
@@ -1156,6 +1137,7 @@
     <col min="1" max="1" width="12.4954954954955" customWidth="1"/>
     <col min="2" max="2" width="14.9189189189189" customWidth="1"/>
     <col min="3" max="3" width="10.045045045045" customWidth="1"/>
+    <col min="5" max="5" width="10.963963963964" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:8">
@@ -1183,13 +1165,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>233</v>
       </c>
       <c r="F2" s="1">
@@ -1203,33 +1185,33 @@
       </c>
     </row>
     <row r="3" ht="16.25" spans="1:8">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" ht="16.25" spans="1:8">
-      <c r="A4" s="7"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" ht="16.25" spans="1:8">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>233</v>
       </c>
       <c r="F5" s="1">
@@ -1241,103 +1223,103 @@
       </c>
     </row>
     <row r="6" ht="16.25" spans="1:8">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" ht="16.25" spans="1:8">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" ht="16.25" spans="1:8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" ht="16.25" spans="1:8">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" ht="16.25" spans="1:8">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" ht="16.25" spans="1:8">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" ht="16.25" spans="1:8">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" ht="16.25" spans="1:8">
-      <c r="A13" s="7"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" ht="21" spans="1:8">
-      <c r="A14" s="7"/>
+    <row r="14" ht="16.25" spans="1:8">
+      <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>250</v>
       </c>
       <c r="F14" s="1">
@@ -1346,12 +1328,12 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" ht="21" spans="1:8">
-      <c r="A15" s="7"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="6">
+    <row r="15" ht="16.25" spans="1:8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="5">
         <v>3407</v>
       </c>
       <c r="F15" s="1">
@@ -1364,24 +1346,24 @@
         <v>96.875</v>
       </c>
     </row>
-    <row r="16" ht="21" spans="1:8">
-      <c r="A16" s="7"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="6"/>
+    <row r="16" ht="16.25" spans="1:8">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" ht="16.25" spans="1:8">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="5" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>233</v>
       </c>
       <c r="F17" s="1">
@@ -1395,11 +1377,11 @@
       </c>
     </row>
     <row r="18" ht="16.25" spans="1:8">
-      <c r="A18" s="7"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5">
         <v>3407</v>
       </c>
       <c r="F18" s="1">
@@ -1411,25 +1393,31 @@
       </c>
     </row>
     <row r="19" ht="16.25" spans="1:8">
-      <c r="A19" s="7"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1">
+        <v>100</v>
+      </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>94.271</v>
+      </c>
     </row>
     <row r="20" ht="16.25" spans="1:8">
-      <c r="A20" s="7"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>233</v>
       </c>
       <c r="F20" s="1">
@@ -1443,11 +1431,11 @@
       </c>
     </row>
     <row r="21" ht="16.25" spans="1:8">
-      <c r="A21" s="7"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="6">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5">
         <v>200</v>
       </c>
       <c r="F21" s="1">
@@ -1461,11 +1449,11 @@
       </c>
     </row>
     <row r="22" ht="16.25" spans="1:8">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="6">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5">
         <v>150</v>
       </c>
       <c r="F22" s="1">
@@ -1479,13 +1467,13 @@
       </c>
     </row>
     <row r="23" ht="16.25" spans="1:8">
-      <c r="A23" s="7"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>233</v>
       </c>
       <c r="F23" s="1">
@@ -1499,11 +1487,11 @@
       </c>
     </row>
     <row r="24" ht="16.25" spans="1:8">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="6">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5">
         <v>200</v>
       </c>
       <c r="F24" s="1">
@@ -1517,11 +1505,11 @@
       </c>
     </row>
     <row r="25" ht="16.25" spans="1:8">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="6">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5">
         <v>190</v>
       </c>
       <c r="F25" s="1"/>
@@ -1533,11 +1521,11 @@
       </c>
     </row>
     <row r="26" ht="16.25" spans="1:8">
-      <c r="A26" s="7"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="6">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5">
         <v>180</v>
       </c>
       <c r="F26" s="1"/>
@@ -1549,11 +1537,11 @@
       </c>
     </row>
     <row r="27" ht="16.25" spans="1:8">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="6">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5">
         <v>170</v>
       </c>
       <c r="F27" s="1"/>
@@ -1565,11 +1553,11 @@
       </c>
     </row>
     <row r="28" ht="16.25" spans="1:8">
-      <c r="A28" s="7"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="6">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5">
         <v>150</v>
       </c>
       <c r="F28" s="1"/>
@@ -1581,11 +1569,11 @@
       </c>
     </row>
     <row r="29" ht="16.25" spans="1:8">
-      <c r="A29" s="7"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="6">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5">
         <v>100</v>
       </c>
       <c r="F29" s="1"/>
@@ -1595,11 +1583,11 @@
       </c>
     </row>
     <row r="30" ht="16.25" spans="1:8">
-      <c r="A30" s="7"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="6">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5">
         <v>50</v>
       </c>
       <c r="F30" s="1"/>
@@ -1609,11 +1597,11 @@
       </c>
     </row>
     <row r="31" ht="16.25" spans="1:8">
-      <c r="A31" s="14"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="6">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5">
         <v>20</v>
       </c>
       <c r="F31" s="1"/>
@@ -1624,18 +1612,18 @@
     </row>
     <row r="32" ht="16.25" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>10</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>3407</v>
       </c>
       <c r="F32" s="1"/>
@@ -1643,11 +1631,11 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" ht="16.25" spans="1:8">
-      <c r="A33" s="7"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="6">
+      <c r="A33" s="6"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5">
         <v>3407</v>
       </c>
       <c r="F33" s="1"/>
@@ -1655,11 +1643,11 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" ht="16.25" spans="1:8">
-      <c r="A34" s="7"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="6">
+      <c r="A34" s="6"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5">
         <v>3407</v>
       </c>
       <c r="F34" s="1"/>
@@ -1667,13 +1655,13 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" ht="16.25" spans="1:8">
-      <c r="A35" s="7"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>3407</v>
       </c>
       <c r="F35" s="1"/>
@@ -1681,11 +1669,11 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" ht="16.25" spans="1:8">
-      <c r="A36" s="7"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="6">
+      <c r="A36" s="6"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5">
         <v>3407</v>
       </c>
       <c r="F36" s="1"/>
@@ -1693,11 +1681,11 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" ht="16.25" spans="1:8">
-      <c r="A37" s="7"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="6">
+      <c r="A37" s="6"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5">
         <v>3407</v>
       </c>
       <c r="F37" s="1"/>
@@ -1705,77 +1693,77 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" ht="16.25" spans="1:8">
-      <c r="A38" s="7"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3">
         <v>100</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>3407</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" ht="21" spans="1:8">
-      <c r="A39" s="7"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="6">
+    <row r="39" ht="16.25" spans="1:8">
+      <c r="A39" s="6"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="5">
         <v>3407</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" ht="21" spans="1:8">
-      <c r="A40" s="7"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="6">
+    <row r="40" ht="16.25" spans="1:8">
+      <c r="A40" s="6"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="5">
         <v>3407</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" ht="21" spans="1:8">
-      <c r="A41" s="7"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="9" t="s">
+    <row r="41" ht="16.25" spans="1:8">
+      <c r="A41" s="6"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>3407</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" ht="21" spans="1:8">
-      <c r="A42" s="7"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="6">
+    <row r="42" ht="16.25" spans="1:8">
+      <c r="A42" s="6"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="5">
         <v>3407</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" ht="21" spans="1:8">
-      <c r="A43" s="7"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="6">
+    <row r="43" ht="16.25" spans="1:8">
+      <c r="A43" s="6"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="5">
         <v>3407</v>
       </c>
       <c r="F43" s="1"/>
@@ -1783,15 +1771,15 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" ht="16.25" spans="1:8">
-      <c r="A44" s="7"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>3407</v>
       </c>
       <c r="F44" s="1"/>
@@ -1799,11 +1787,11 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" ht="16.25" spans="1:8">
-      <c r="A45" s="7"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="6">
+      <c r="A45" s="6"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5">
         <v>3407</v>
       </c>
       <c r="F45" s="1"/>
@@ -1811,11 +1799,11 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" ht="16.25" spans="1:8">
-      <c r="A46" s="7"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="6">
+      <c r="A46" s="6"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5">
         <v>3407</v>
       </c>
       <c r="F46" s="1"/>
@@ -1823,13 +1811,13 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" ht="16.25" spans="1:8">
-      <c r="A47" s="7"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5" t="s">
+      <c r="A47" s="6"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>3407</v>
       </c>
       <c r="F47" s="1"/>
@@ -1837,11 +1825,11 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" ht="16.25" spans="1:8">
-      <c r="A48" s="7"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="6">
+      <c r="A48" s="6"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5">
         <v>3407</v>
       </c>
       <c r="F48" s="1"/>
@@ -1849,11 +1837,11 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" ht="16.25" spans="1:8">
-      <c r="A49" s="7"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="6">
+      <c r="A49" s="6"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5">
         <v>3407</v>
       </c>
       <c r="F49" s="1"/>
@@ -1861,17 +1849,17 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" ht="16.25" spans="1:8">
-      <c r="A50" s="7"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>3407</v>
       </c>
       <c r="F50" s="1"/>
@@ -1879,11 +1867,11 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" ht="16.25" spans="1:8">
-      <c r="A51" s="7"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="6">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="5">
         <v>3407</v>
       </c>
       <c r="F51" s="1"/>
@@ -1891,11 +1879,11 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" ht="16.25" spans="1:8">
-      <c r="A52" s="7"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="6">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="5">
         <v>3407</v>
       </c>
       <c r="F52" s="1"/>
@@ -1903,25 +1891,27 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" ht="16.25" spans="1:8">
-      <c r="A53" s="7"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="5" t="s">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>3407</v>
       </c>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1">
+        <v>91.146</v>
+      </c>
       <c r="H53" s="1"/>
     </row>
     <row r="54" ht="16.25" spans="1:8">
-      <c r="A54" s="7"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="6">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5">
         <v>3407</v>
       </c>
       <c r="F54" s="1"/>
@@ -1929,11 +1919,11 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" ht="16.25" spans="1:8">
-      <c r="A55" s="7"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="6">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="5">
         <v>3407</v>
       </c>
       <c r="F55" s="1"/>
@@ -1941,15 +1931,15 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" ht="16.25" spans="1:8">
-      <c r="A56" s="7"/>
-      <c r="B56" s="10"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>3407</v>
       </c>
       <c r="F56" s="1"/>
@@ -1957,11 +1947,11 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" ht="16.25" spans="1:8">
-      <c r="A57" s="7"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="6">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="5">
         <v>3407</v>
       </c>
       <c r="F57" s="1"/>
@@ -1969,11 +1959,11 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" ht="16.25" spans="1:8">
-      <c r="A58" s="7"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="6">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5">
         <v>3407</v>
       </c>
       <c r="F58" s="1"/>
@@ -1981,13 +1971,13 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" ht="16.25" spans="1:8">
-      <c r="A59" s="7"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="5" t="s">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>3407</v>
       </c>
       <c r="F59" s="1"/>
@@ -1995,11 +1985,11 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" ht="16.25" spans="1:8">
-      <c r="A60" s="7"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="6">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="5">
         <v>3407</v>
       </c>
       <c r="F60" s="1"/>
@@ -2007,11 +1997,11 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" ht="16.25" spans="1:8">
-      <c r="A61" s="14"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="6">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="5">
         <v>3407</v>
       </c>
       <c r="F61" s="1"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16457" windowHeight="14751"/>
+    <workbookView windowWidth="16868" windowHeight="15591"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
-  <si>
-    <t>seed</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="47">
+  <si>
+    <t>notes</t>
   </si>
   <si>
     <t>video</t>
@@ -39,9 +39,36 @@
     <t>basic</t>
   </si>
   <si>
+    <t>233, k=12</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>q 0.99, 0.01</t>
+  </si>
+  <si>
+    <t>q 0.9, 0.1</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
     <t>crop</t>
   </si>
   <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
@@ -51,13 +78,85 @@
     <t>board</t>
   </si>
   <si>
-    <t>3407(k=8)</t>
+    <t>250, k=12</t>
+  </si>
+  <si>
+    <t>k=12</t>
   </si>
   <si>
     <t>desk</t>
   </si>
   <si>
+    <t>200, k=12</t>
+  </si>
+  <si>
+    <t>150, k=12</t>
+  </si>
+  <si>
+    <t>190, k=12</t>
+  </si>
+  <si>
+    <t>180, k=12</t>
+  </si>
+  <si>
+    <t>170, k=12</t>
+  </si>
+  <si>
+    <t>100, k=12</t>
+  </si>
+  <si>
+    <t>50, k=12</t>
+  </si>
+  <si>
+    <t>20, k=12</t>
+  </si>
+  <si>
     <t>ViFi</t>
+  </si>
+  <si>
+    <t>q 0.7, 0.3</t>
+  </si>
+  <si>
+    <t>q 0.8, 0.2</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>q 1 0</t>
+  </si>
+  <si>
+    <t>99.479(output)</t>
+  </si>
+  <si>
+    <t>q 1, 0.001</t>
+  </si>
+  <si>
+    <t>q 0.999, 0.001</t>
+  </si>
+  <si>
+    <t>q 1 0.01</t>
+  </si>
+  <si>
+    <t>q 1, 0.1</t>
+  </si>
+  <si>
+    <t>q 1, 0.2</t>
+  </si>
+  <si>
+    <t>q 1, 0.5</t>
+  </si>
+  <si>
+    <t>q 0.5, 0.5</t>
+  </si>
+  <si>
+    <t>q 0.75, 0.25</t>
+  </si>
+  <si>
+    <t>q 0.82, 0.18</t>
+  </si>
+  <si>
+    <t>q 0.85, 0.15</t>
   </si>
 </sst>
 </file>
@@ -70,7 +169,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +193,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="华文细黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.25"/>
       <name val="华文细黑"/>
       <charset val="134"/>
     </font>
@@ -602,10 +707,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,34 +719,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,98 +755,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,12 +868,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,6 +893,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,18 +1258,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="1" width="12.4954954954955" customWidth="1"/>
     <col min="2" max="2" width="14.9189189189189" customWidth="1"/>
     <col min="3" max="3" width="10.045045045045" customWidth="1"/>
-    <col min="5" max="5" width="10.963963963964" customWidth="1"/>
+    <col min="5" max="5" width="14.972972972973" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:8">
@@ -1171,878 +1303,1591 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5">
-        <v>233</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6">
         <v>85.938</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="6">
         <v>63.021</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="6">
         <v>93.229</v>
       </c>
     </row>
     <row r="3" ht="16.25" spans="1:8">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G3" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H3" s="1">
+        <v>98.438</v>
+      </c>
     </row>
     <row r="4" ht="16.25" spans="1:8">
-      <c r="A4" s="6"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G4" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H4" s="1">
+        <v>97.917</v>
+      </c>
     </row>
     <row r="5" ht="16.25" spans="1:8">
-      <c r="A5" s="6"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5">
-        <v>233</v>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="F5" s="1">
-        <v>95.833</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>97.396</v>
+      </c>
+      <c r="G5" s="1">
+        <v>88.542</v>
+      </c>
       <c r="H5" s="1">
-        <v>92.708</v>
+        <v>99.479</v>
       </c>
     </row>
     <row r="6" ht="16.25" spans="1:8">
-      <c r="A6" s="6"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G6" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" ht="16.25" spans="1:8">
-      <c r="A7" s="6"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G7" s="1">
+        <v>88.542</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" ht="16.25" spans="1:8">
-      <c r="A8" s="6"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6">
+        <v>95.833</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
+        <v>92.708</v>
+      </c>
     </row>
     <row r="9" ht="16.25" spans="1:8">
-      <c r="A9" s="6"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G9" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H9" s="1">
+        <v>98.958</v>
+      </c>
     </row>
     <row r="10" ht="16.25" spans="1:8">
-      <c r="A10" s="6"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G10" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H10" s="1">
+        <v>98.438</v>
+      </c>
     </row>
     <row r="11" ht="16.25" spans="1:8">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G11" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H11" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" ht="16.25" spans="1:8">
-      <c r="A12" s="6"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G12" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" ht="16.25" spans="1:8">
-      <c r="A13" s="6"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="E13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G13" s="1">
+        <v>88.542</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" ht="16.25" spans="1:8">
-      <c r="A14" s="6"/>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="5">
-        <v>250</v>
-      </c>
-      <c r="F14" s="1">
-        <v>90.625</v>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" ht="16.25" spans="1:8">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F15" s="1">
-        <v>92.188</v>
-      </c>
-      <c r="G15" s="1">
-        <v>88.021</v>
-      </c>
-      <c r="H15" s="1">
-        <v>96.875</v>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" ht="16.25" spans="1:8">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" ht="16.25" spans="1:8">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="5">
-        <v>233</v>
+      <c r="A17" s="8"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="F17" s="1">
-        <v>98.958</v>
-      </c>
-      <c r="G17" s="1">
-        <v>89.583</v>
-      </c>
-      <c r="H17" s="1">
-        <v>95.833</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" ht="16.25" spans="1:8">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5">
-        <v>3407</v>
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="F18" s="1">
-        <v>98.958</v>
+        <v>100</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1">
-        <v>95.321</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" ht="16.25" spans="1:8">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1">
         <v>100</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1">
-        <v>94.271</v>
-      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" ht="16.25" spans="1:8">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="5">
-        <v>233</v>
-      </c>
-      <c r="F20" s="1">
-        <v>91.667</v>
-      </c>
-      <c r="G20" s="1">
-        <v>76.562</v>
-      </c>
-      <c r="H20" s="1">
-        <v>95.833</v>
-      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" ht="16.25" spans="1:8">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="5">
-        <v>200</v>
-      </c>
-      <c r="F21" s="1">
-        <v>89.062</v>
-      </c>
-      <c r="G21" s="1">
-        <v>85.938</v>
-      </c>
-      <c r="H21" s="1">
-        <v>93.75</v>
-      </c>
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" ht="16.25" spans="1:8">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="5">
-        <v>150</v>
-      </c>
-      <c r="F22" s="1">
-        <v>95.833</v>
-      </c>
-      <c r="G22" s="1">
-        <v>81.25</v>
-      </c>
-      <c r="H22" s="1">
-        <v>94.792</v>
-      </c>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" ht="16.25" spans="1:8">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5">
-        <v>233</v>
-      </c>
-      <c r="F23" s="1">
-        <v>99.479</v>
-      </c>
-      <c r="G23" s="1">
-        <v>76.562</v>
-      </c>
-      <c r="H23" s="1">
-        <v>93.75</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" ht="16.25" spans="1:8">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="5">
-        <v>200</v>
-      </c>
-      <c r="F24" s="1">
-        <v>100</v>
-      </c>
-      <c r="G24" s="1">
-        <v>85.938</v>
-      </c>
-      <c r="H24" s="1">
-        <v>93.705</v>
-      </c>
+      <c r="E24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" ht="16.25" spans="1:8">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="5">
-        <v>190</v>
+      <c r="E25" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" ht="16.25" spans="1:8">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="6">
+        <v>90.625</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" ht="16.25" spans="1:8">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6">
+        <v>92.188</v>
+      </c>
+      <c r="G27" s="6">
+        <v>88.021</v>
+      </c>
+      <c r="H27" s="6">
+        <v>96.875</v>
+      </c>
+    </row>
+    <row r="28" ht="16.25" spans="1:8">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1">
+        <v>95.312</v>
+      </c>
+      <c r="G28" s="1">
+        <v>86.979</v>
+      </c>
+      <c r="H28" s="1">
+        <v>92.188</v>
+      </c>
+    </row>
+    <row r="29" ht="16.25" spans="1:8">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="6">
+        <v>98.958</v>
+      </c>
+      <c r="G29" s="6">
+        <v>89.583</v>
+      </c>
+      <c r="H29" s="6">
+        <v>95.833</v>
+      </c>
+    </row>
+    <row r="30" ht="16.25" spans="1:8">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="6">
+        <v>98.958</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
+        <v>95.321</v>
+      </c>
+    </row>
+    <row r="31" ht="16.25" spans="1:8">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1">
+        <v>100</v>
+      </c>
+      <c r="G31" s="1">
+        <v>86.979</v>
+      </c>
+      <c r="H31" s="1">
+        <v>94.271</v>
+      </c>
+    </row>
+    <row r="32" ht="16.25" spans="1:8">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="6">
+        <v>91.667</v>
+      </c>
+      <c r="G32" s="6">
+        <v>76.562</v>
+      </c>
+      <c r="H32" s="6">
+        <v>95.833</v>
+      </c>
+    </row>
+    <row r="33" ht="16.25" spans="1:8">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="6">
+        <v>89.062</v>
+      </c>
+      <c r="G33" s="6">
+        <v>85.938</v>
+      </c>
+      <c r="H33" s="6">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="34" ht="16.25" spans="1:8">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="6">
+        <v>95.833</v>
+      </c>
+      <c r="G34" s="6">
         <v>81.25</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H34" s="6">
+        <v>94.792</v>
+      </c>
+    </row>
+    <row r="35" ht="16.25" spans="1:8">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1">
+        <v>92.188</v>
+      </c>
+      <c r="G35" s="1">
+        <v>81.25</v>
+      </c>
+      <c r="H35" s="1">
+        <v>94.792</v>
+      </c>
+    </row>
+    <row r="36" ht="16.25" spans="1:8">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="6">
+        <v>99.479</v>
+      </c>
+      <c r="G36" s="6">
+        <v>76.562</v>
+      </c>
+      <c r="H36" s="6">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="37" ht="16.25" spans="1:8">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="6">
+        <v>100</v>
+      </c>
+      <c r="G37" s="6">
+        <v>85.938</v>
+      </c>
+      <c r="H37" s="6">
+        <v>93.705</v>
+      </c>
+    </row>
+    <row r="38" ht="16.25" spans="1:8">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6">
+        <v>81.25</v>
+      </c>
+      <c r="H38" s="6">
         <v>96.354</v>
       </c>
     </row>
-    <row r="26" ht="16.25" spans="1:8">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5">
-        <v>180</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1">
+    <row r="39" ht="16.25" spans="1:8">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6">
         <v>88.021</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H39" s="6">
         <v>94.792</v>
       </c>
     </row>
-    <row r="27" ht="16.25" spans="1:8">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5">
-        <v>170</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1">
+    <row r="40" ht="16.25" spans="1:8">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6">
         <v>86.458</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H40" s="6">
         <v>93.75</v>
       </c>
     </row>
-    <row r="28" ht="16.25" spans="1:8">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5">
-        <v>150</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1">
+    <row r="41" ht="16.25" spans="1:8">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6">
         <v>81.25</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H41" s="6">
         <v>95.312</v>
       </c>
     </row>
-    <row r="29" ht="16.25" spans="1:8">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5">
+    <row r="42" ht="16.25" spans="1:8">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6">
+        <v>93.229</v>
+      </c>
+    </row>
+    <row r="43" ht="16.25" spans="1:8">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6">
+        <v>96.354</v>
+      </c>
+    </row>
+    <row r="44" ht="16.25" spans="1:8">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6">
+        <v>95.833</v>
+      </c>
+    </row>
+    <row r="45" ht="16.25" spans="1:8">
+      <c r="A45" s="8"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1">
         <v>100</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1">
-        <v>93.229</v>
-      </c>
-    </row>
-    <row r="30" ht="16.25" spans="1:8">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5">
-        <v>50</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1">
-        <v>96.354</v>
-      </c>
-    </row>
-    <row r="31" ht="16.25" spans="1:8">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5">
-        <v>20</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1">
+      <c r="G45" s="1">
+        <v>81.25</v>
+      </c>
+      <c r="H45" s="1">
+        <v>92.708</v>
+      </c>
+    </row>
+    <row r="46" ht="16.25" spans="1:8">
+      <c r="A46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G46" s="1">
         <v>95.833</v>
       </c>
-    </row>
-    <row r="32" ht="16.25" spans="1:8">
-      <c r="A32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="2">
-        <v>10</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" ht="16.25" spans="1:8">
-      <c r="A33" s="6"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" ht="16.25" spans="1:8">
-      <c r="A34" s="6"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" ht="16.25" spans="1:8">
-      <c r="A35" s="6"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" ht="16.25" spans="1:8">
-      <c r="A36" s="6"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" ht="16.25" spans="1:8">
-      <c r="A37" s="6"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" ht="16.25" spans="1:8">
-      <c r="A38" s="6"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3">
-        <v>100</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" ht="16.25" spans="1:8">
-      <c r="A39" s="6"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" ht="16.25" spans="1:8">
-      <c r="A40" s="6"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" ht="16.25" spans="1:8">
-      <c r="A41" s="6"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" ht="16.25" spans="1:8">
-      <c r="A42" s="6"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" ht="16.25" spans="1:8">
-      <c r="A43" s="6"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" ht="16.25" spans="1:8">
-      <c r="A44" s="6"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" ht="16.25" spans="1:8">
-      <c r="A45" s="6"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" ht="16.25" spans="1:8">
-      <c r="A46" s="6"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1">
+        <v>99.479</v>
+      </c>
     </row>
     <row r="47" ht="16.25" spans="1:8">
-      <c r="A47" s="6"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G47" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H47" s="1">
+        <v>99.479</v>
+      </c>
     </row>
     <row r="48" ht="16.25" spans="1:8">
-      <c r="A48" s="6"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="E48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G48" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H48" s="1">
+        <v>98.958</v>
+      </c>
     </row>
     <row r="49" ht="16.25" spans="1:8">
-      <c r="A49" s="6"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="D49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G49" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H49" s="1">
+        <v>99.479</v>
+      </c>
     </row>
     <row r="50" ht="16.25" spans="1:8">
-      <c r="A50" s="6"/>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="F50" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G50" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H50" s="1">
+        <v>98.958</v>
+      </c>
+    </row>
+    <row r="51" ht="16.25" spans="1:8">
+      <c r="A51" s="8"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="F51" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G51" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H51" s="1">
+        <v>98.958</v>
+      </c>
+    </row>
+    <row r="52" ht="16.25" spans="1:8">
+      <c r="A52" s="8"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G52" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H52" s="1">
+        <v>97.396</v>
+      </c>
+    </row>
+    <row r="53" ht="16.25" spans="1:8">
+      <c r="A53" s="8"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G53" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H53" s="1">
+        <v>99.479</v>
+      </c>
+    </row>
+    <row r="54" ht="16.25" spans="1:8">
+      <c r="A54" s="8"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G54" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H54" s="1">
+        <v>99.479</v>
+      </c>
+    </row>
+    <row r="55" ht="16.25" spans="1:8">
+      <c r="A55" s="8"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3">
+        <v>100</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" ht="16.25" spans="1:8">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" ht="16.25" spans="1:8">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" ht="16.25" spans="1:8">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1">
-        <v>91.146</v>
-      </c>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" ht="16.25" spans="1:8">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" ht="16.25" spans="1:8">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F55" s="1"/>
+      <c r="E55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="56" ht="16.25" spans="1:8">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F56" s="1"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
     <row r="57" ht="16.25" spans="1:8">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F57" s="1"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" ht="16.25" spans="1:8">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F58" s="1"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="1">
+        <v>100</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
     <row r="59" ht="16.25" spans="1:8">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F59" s="1"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="1">
+        <v>100</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
     <row r="60" ht="16.25" spans="1:8">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="5">
-        <v>3407</v>
-      </c>
-      <c r="F60" s="1"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="1">
+        <v>100</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
     <row r="61" ht="16.25" spans="1:8">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="5">
-        <v>3407</v>
+      <c r="A61" s="8"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
+    <row r="62" ht="16.25" spans="1:8">
+      <c r="A62" s="8"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" ht="16.25" spans="1:8">
+      <c r="A63" s="8"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" ht="16.25" spans="1:8">
+      <c r="A64" s="8"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" ht="16.25" spans="1:8">
+      <c r="A65" s="8"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" ht="16.25" spans="1:8">
+      <c r="A66" s="8"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" ht="16.25" spans="1:8">
+      <c r="A67" s="8"/>
+      <c r="B67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="1">
+        <v>95.312</v>
+      </c>
+      <c r="G67" s="1">
+        <v>91.146</v>
+      </c>
+      <c r="H67" s="1">
+        <v>94.271</v>
+      </c>
+    </row>
+    <row r="68" ht="16.25" spans="1:8">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="1">
+        <v>95.312</v>
+      </c>
+      <c r="G68" s="1">
+        <v>91.146</v>
+      </c>
+      <c r="H68" s="1">
+        <v>96.354</v>
+      </c>
+    </row>
+    <row r="69" ht="16.25" spans="1:8">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="1">
+        <v>95.312</v>
+      </c>
+      <c r="G69" s="1">
+        <v>91.146</v>
+      </c>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" ht="16.25" spans="1:8">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="1">
+        <v>100</v>
+      </c>
+      <c r="G70" s="1">
+        <v>91.146</v>
+      </c>
+      <c r="H70" s="1">
+        <v>95.833</v>
+      </c>
+    </row>
+    <row r="71" ht="16.25" spans="1:8">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="1">
+        <v>100</v>
+      </c>
+      <c r="G71" s="1">
+        <v>91.146</v>
+      </c>
+      <c r="H71" s="1">
+        <v>96.354</v>
+      </c>
+    </row>
+    <row r="72" ht="16.25" spans="1:8">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="1">
+        <v>100</v>
+      </c>
+      <c r="G72" s="1">
+        <v>91.146</v>
+      </c>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" ht="16.25" spans="1:8">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="1">
+        <v>92.188</v>
+      </c>
+      <c r="G73" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H73" s="1">
+        <v>96.875</v>
+      </c>
+    </row>
+    <row r="74" ht="16.25" spans="1:8">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="1">
+        <v>92.188</v>
+      </c>
+      <c r="G74" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H74" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="75" ht="16.25" spans="1:8">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="1">
+        <v>92.188</v>
+      </c>
+      <c r="G75" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" ht="16.25" spans="1:8">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G76" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H76" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="77" ht="16.25" spans="1:8">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G77" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H77" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="78" ht="16.25" spans="1:9">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G78" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H78" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="I78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" ht="16.25" spans="1:8">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G79" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H79" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="80" ht="16.25" spans="1:8">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G80" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H80" s="1">
+        <v>98.438</v>
+      </c>
+    </row>
+    <row r="81" ht="16.25" spans="1:8">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F81" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G81" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H81" s="1">
+        <v>97.396</v>
+      </c>
+    </row>
+    <row r="82" ht="16.25" spans="1:8">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G82" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H82" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="83" ht="16.25" spans="1:8">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G83" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H83" s="1">
+        <v>97.396</v>
+      </c>
+    </row>
+    <row r="84" ht="16.25" spans="1:8">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G84" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H84" s="1">
+        <v>97.396</v>
+      </c>
+    </row>
+    <row r="85" ht="16.25" spans="1:8">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G85" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H85" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="86" ht="16.25" spans="1:8">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G86" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H86" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="87" ht="16.25" spans="1:8">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G87" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H87" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="88" ht="16.25" spans="1:8">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G88" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H88" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="89" ht="16.25" spans="1:8">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G89" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H89" s="1">
+        <v>98.438</v>
+      </c>
+    </row>
+    <row r="90" ht="16.25" spans="1:9">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G90" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H90" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="I90" s="19"/>
+    </row>
+    <row r="91" ht="16.25" spans="1:9">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G91" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H91" s="1">
+        <v>97.917</v>
+      </c>
+      <c r="I91" s="19"/>
+    </row>
+    <row r="92" ht="16.25" spans="1:9">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G92" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H92" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="I92" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A2:A31"/>
-    <mergeCell ref="A32:A61"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="B14:B31"/>
-    <mergeCell ref="B32:B49"/>
-    <mergeCell ref="B50:B61"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C13"/>
+  <mergeCells count="36">
+    <mergeCell ref="A2:A45"/>
+    <mergeCell ref="A46:A92"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="B26:B45"/>
+    <mergeCell ref="B46:B66"/>
+    <mergeCell ref="B67:B92"/>
+    <mergeCell ref="C2:C13"/>
     <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C31"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="C50:C55"/>
-    <mergeCell ref="C56:C61"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C45"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="C73:C92"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D13"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D36:D45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D49:D54"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16868" windowHeight="15591"/>
+    <workbookView windowHeight="14897"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="54">
   <si>
     <t>notes</t>
   </si>
@@ -39,124 +39,145 @@
     <t>basic</t>
   </si>
   <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>q 0.99, 0.01</t>
+  </si>
+  <si>
+    <t>q 0.9, 0.1</t>
+  </si>
+  <si>
+    <t>crop</t>
+  </si>
+  <si>
+    <t>q 0.8, 0.2</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>q 0.4, 0.6</t>
+  </si>
+  <si>
+    <t>q 0.3, 0.7</t>
+  </si>
+  <si>
+    <t>q 0.6, 0.4</t>
+  </si>
+  <si>
+    <t>q 0.7, 0.3</t>
+  </si>
+  <si>
+    <t>q 0.2, 0.8</t>
+  </si>
+  <si>
+    <t>occlusion</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>ViFi</t>
+  </si>
+  <si>
+    <t>q 0.999, 0.001</t>
+  </si>
+  <si>
+    <t>q 0.1, 0.9</t>
+  </si>
+  <si>
+    <t>q 0.01, 0.99</t>
+  </si>
+  <si>
+    <t>q 1 0</t>
+  </si>
+  <si>
+    <t>99.479(output)</t>
+  </si>
+  <si>
+    <t>q 1, 0.001</t>
+  </si>
+  <si>
+    <t>q 1 0.01</t>
+  </si>
+  <si>
+    <t>q 1, 0.1</t>
+  </si>
+  <si>
+    <t>q 1, 0.2</t>
+  </si>
+  <si>
+    <t>q 1, 0.5</t>
+  </si>
+  <si>
+    <t>q 0.5, 0.5</t>
+  </si>
+  <si>
+    <t>q 0.75, 0.25</t>
+  </si>
+  <si>
+    <t>q 0.82, 0.18</t>
+  </si>
+  <si>
+    <t>q 0.85, 0.15</t>
+  </si>
+  <si>
+    <t>LLM</t>
+  </si>
+  <si>
     <t>233, k=12</t>
   </si>
   <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>q 0.99, 0.01</t>
-  </si>
-  <si>
-    <t>q 0.9, 0.1</t>
+    <t>q</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>250, k=12</t>
+  </si>
+  <si>
+    <t>k=12</t>
+  </si>
+  <si>
+    <t>200, k=12</t>
+  </si>
+  <si>
+    <t>150, k=12</t>
+  </si>
+  <si>
+    <t>190, k=12</t>
+  </si>
+  <si>
+    <t>180, k=12</t>
+  </si>
+  <si>
+    <t>170, k=12</t>
+  </si>
+  <si>
+    <t>100, k=12</t>
+  </si>
+  <si>
+    <t>50, k=12</t>
+  </si>
+  <si>
+    <t>20, k=12</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>two</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>crop</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>occlusion</t>
-  </si>
-  <si>
-    <t>board</t>
-  </si>
-  <si>
-    <t>250, k=12</t>
-  </si>
-  <si>
-    <t>k=12</t>
-  </si>
-  <si>
-    <t>desk</t>
-  </si>
-  <si>
-    <t>200, k=12</t>
-  </si>
-  <si>
-    <t>150, k=12</t>
-  </si>
-  <si>
-    <t>190, k=12</t>
-  </si>
-  <si>
-    <t>180, k=12</t>
-  </si>
-  <si>
-    <t>170, k=12</t>
-  </si>
-  <si>
-    <t>100, k=12</t>
-  </si>
-  <si>
-    <t>50, k=12</t>
-  </si>
-  <si>
-    <t>20, k=12</t>
-  </si>
-  <si>
-    <t>ViFi</t>
-  </si>
-  <si>
-    <t>q 0.7, 0.3</t>
-  </si>
-  <si>
-    <t>q 0.8, 0.2</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>q 1 0</t>
-  </si>
-  <si>
-    <t>99.479(output)</t>
-  </si>
-  <si>
-    <t>q 1, 0.001</t>
-  </si>
-  <si>
-    <t>q 0.999, 0.001</t>
-  </si>
-  <si>
-    <t>q 1 0.01</t>
-  </si>
-  <si>
-    <t>q 1, 0.1</t>
-  </si>
-  <si>
-    <t>q 1, 0.2</t>
-  </si>
-  <si>
-    <t>q 1, 0.5</t>
-  </si>
-  <si>
-    <t>q 0.5, 0.5</t>
-  </si>
-  <si>
-    <t>q 0.75, 0.25</t>
-  </si>
-  <si>
-    <t>q 0.82, 0.18</t>
-  </si>
-  <si>
-    <t>q 0.85, 0.15</t>
   </si>
 </sst>
 </file>
@@ -541,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -571,6 +592,17 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -585,6 +617,26 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -592,6 +644,15 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -710,7 +771,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,7 +801,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,28 +819,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,10 +849,10 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,46 +929,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,10 +1334,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1270,6 +1346,7 @@
     <col min="2" max="2" width="14.9189189189189" customWidth="1"/>
     <col min="3" max="3" width="10.045045045045" customWidth="1"/>
     <col min="5" max="5" width="14.972972972973" customWidth="1"/>
+    <col min="9" max="9" width="16.4414414414414" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:8">
@@ -1306,18 +1383,18 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6">
-        <v>85.938</v>
-      </c>
-      <c r="G2" s="6">
-        <v>63.021</v>
-      </c>
-      <c r="H2" s="6">
-        <v>93.229</v>
+      <c r="F2" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G2" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H2" s="1">
+        <v>98.438</v>
       </c>
     </row>
     <row r="3" ht="16.25" spans="1:8">
-      <c r="A3" s="7"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="4"/>
@@ -1331,11 +1408,11 @@
         <v>88.542</v>
       </c>
       <c r="H3" s="1">
-        <v>98.438</v>
+        <v>97.917</v>
       </c>
     </row>
     <row r="4" ht="16.25" spans="1:8">
-      <c r="A4" s="8"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="4"/>
@@ -1349,11 +1426,11 @@
         <v>88.542</v>
       </c>
       <c r="H4" s="1">
-        <v>97.917</v>
+        <v>99.479</v>
       </c>
     </row>
     <row r="5" ht="16.25" spans="1:8">
-      <c r="A5" s="8"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="4"/>
@@ -1367,68 +1444,72 @@
         <v>88.542</v>
       </c>
       <c r="H5" s="1">
-        <v>99.479</v>
+        <v>98.438</v>
       </c>
     </row>
     <row r="6" ht="16.25" spans="1:8">
-      <c r="A6" s="8"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1">
-        <v>97.396</v>
+        <v>98.958</v>
       </c>
       <c r="G6" s="1">
         <v>88.542</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
+      <c r="H6" s="1">
+        <v>98.958</v>
       </c>
     </row>
     <row r="7" ht="16.25" spans="1:8">
-      <c r="A7" s="8"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1">
-        <v>97.396</v>
+        <v>98.958</v>
       </c>
       <c r="G7" s="1">
         <v>88.542</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>98.438</v>
+      </c>
     </row>
     <row r="8" ht="16.25" spans="1:8">
-      <c r="A8" s="8"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="6">
-        <v>95.833</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6">
-        <v>92.708</v>
+        <v>9</v>
+      </c>
+      <c r="F8" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G8" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H8" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="9" ht="16.25" spans="1:8">
-      <c r="A9" s="8"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1">
         <v>98.958</v>
@@ -1437,292 +1518,358 @@
         <v>88.542</v>
       </c>
       <c r="H9" s="1">
-        <v>98.958</v>
+        <v>98.438</v>
       </c>
     </row>
     <row r="10" ht="16.25" spans="1:8">
-      <c r="A10" s="8"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="6">
+        <v>100</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1">
-        <v>98.958</v>
+        <v>95.833</v>
       </c>
       <c r="G10" s="1">
-        <v>88.542</v>
+        <v>86.458</v>
       </c>
       <c r="H10" s="1">
-        <v>98.438</v>
+        <v>96.354</v>
       </c>
     </row>
     <row r="11" ht="16.25" spans="1:8">
-      <c r="A11" s="8"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1">
-        <v>98.958</v>
+        <v>95.833</v>
       </c>
       <c r="G11" s="1">
-        <v>88.542</v>
+        <v>86.458</v>
       </c>
       <c r="H11" s="1">
+        <v>95.312</v>
+      </c>
+    </row>
+    <row r="12" ht="16.25" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="G12" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H12" s="1">
+        <v>96.354</v>
+      </c>
+    </row>
+    <row r="13" ht="16.25" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" ht="16.25" spans="1:8">
-      <c r="A12" s="8"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1">
-        <v>98.958</v>
-      </c>
-      <c r="G12" s="1">
-        <v>88.542</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="16.25" spans="1:8">
-      <c r="A13" s="8"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1">
-        <v>98.958</v>
-      </c>
       <c r="G13" s="1">
-        <v>88.542</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>86.458</v>
+      </c>
+      <c r="H13" s="1">
+        <v>94.271</v>
+      </c>
     </row>
     <row r="14" ht="16.25" spans="1:8">
-      <c r="A14" s="8"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="9">
-        <v>100</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="F14" s="1">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H14" s="1">
+        <v>95.312</v>
+      </c>
     </row>
     <row r="15" ht="16.25" spans="1:8">
-      <c r="A15" s="8"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H15" s="1">
+        <v>97.396</v>
+      </c>
     </row>
     <row r="16" ht="16.25" spans="1:8">
-      <c r="A16" s="8"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F16" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G16" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H16" s="1">
+        <v>71.875</v>
+      </c>
     </row>
     <row r="17" ht="16.25" spans="1:8">
-      <c r="A17" s="8"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="1">
-        <v>100</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+        <v>85.938</v>
+      </c>
+      <c r="G17" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H17" s="1">
+        <v>94.792</v>
+      </c>
     </row>
     <row r="18" ht="16.25" spans="1:8">
-      <c r="A18" s="8"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1">
-        <v>100</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+        <v>85.938</v>
+      </c>
+      <c r="G18" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H18" s="1">
+        <v>94.792</v>
+      </c>
     </row>
     <row r="19" ht="16.25" spans="1:8">
-      <c r="A19" s="8"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1">
-        <v>100</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+        <v>85.938</v>
+      </c>
+      <c r="G19" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H19" s="1">
+        <v>89.583</v>
+      </c>
     </row>
     <row r="20" ht="16.25" spans="1:8">
-      <c r="A20" s="8"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F20" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G20" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H20" s="1">
+        <v>95.833</v>
+      </c>
     </row>
     <row r="21" ht="16.25" spans="1:8">
-      <c r="A21" s="8"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="F21" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G21" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H21" s="1">
+        <v>92.188</v>
+      </c>
     </row>
     <row r="22" ht="16.25" spans="1:8">
-      <c r="A22" s="8"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F22" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G22" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H22" s="1">
+        <v>94.792</v>
+      </c>
     </row>
     <row r="23" ht="16.25" spans="1:8">
-      <c r="A23" s="8"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="F23" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G23" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H23" s="1">
+        <v>94.271</v>
+      </c>
     </row>
     <row r="24" ht="16.25" spans="1:8">
-      <c r="A24" s="8"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F24" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G24" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H24" s="1">
+        <v>96.354</v>
+      </c>
     </row>
     <row r="25" ht="16.25" spans="1:8">
-      <c r="A25" s="8"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="F25" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G25" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H25" s="1">
+        <v>96.354</v>
+      </c>
     </row>
     <row r="26" ht="16.25" spans="1:8">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G26" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H26" s="1">
+        <v>95.833</v>
+      </c>
+    </row>
+    <row r="27" ht="16.25" spans="1:8">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="F27" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G27" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H27" s="1">
+        <v>94.271</v>
+      </c>
+    </row>
+    <row r="28" ht="16.25" spans="1:8">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="C28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="6">
-        <v>90.625</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" ht="16.25" spans="1:8">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="6">
-        <v>92.188</v>
-      </c>
-      <c r="G27" s="6">
-        <v>88.021</v>
-      </c>
-      <c r="H27" s="6">
-        <v>96.875</v>
-      </c>
-    </row>
-    <row r="28" ht="16.25" spans="1:8">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="17"/>
       <c r="E28" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="1">
         <v>95.312</v>
@@ -1735,652 +1882,732 @@
       </c>
     </row>
     <row r="29" ht="16.25" spans="1:8">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="6">
-        <v>98.958</v>
-      </c>
-      <c r="G29" s="6">
-        <v>89.583</v>
-      </c>
-      <c r="H29" s="6">
-        <v>95.833</v>
+      <c r="F29" s="1">
+        <v>100</v>
+      </c>
+      <c r="G29" s="1">
+        <v>86.979</v>
+      </c>
+      <c r="H29" s="1">
+        <v>94.271</v>
       </c>
     </row>
     <row r="30" ht="16.25" spans="1:8">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="E30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="6">
-        <v>98.958</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6">
-        <v>95.321</v>
+        <v>7</v>
+      </c>
+      <c r="F30" s="1">
+        <v>92.188</v>
+      </c>
+      <c r="G30" s="1">
+        <v>81.25</v>
+      </c>
+      <c r="H30" s="1">
+        <v>94.792</v>
       </c>
     </row>
     <row r="31" ht="16.25" spans="1:8">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E31" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="1">
         <v>100</v>
       </c>
       <c r="G31" s="1">
-        <v>86.979</v>
+        <v>81.25</v>
       </c>
       <c r="H31" s="1">
-        <v>94.271</v>
+        <v>92.708</v>
       </c>
     </row>
     <row r="32" ht="16.25" spans="1:8">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="3" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1">
+        <v>100</v>
+      </c>
+      <c r="G32" s="1">
+        <v>81.25</v>
+      </c>
+      <c r="H32" s="1">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="33" ht="16.25" spans="1:8">
+      <c r="A33" s="3"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1">
+        <v>100</v>
+      </c>
+      <c r="G33" s="1">
+        <v>81.25</v>
+      </c>
+      <c r="H33" s="1">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="34" ht="16.25" spans="1:8">
+      <c r="A34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="6">
-        <v>91.667</v>
-      </c>
-      <c r="G32" s="6">
-        <v>76.562</v>
-      </c>
-      <c r="H32" s="6">
+      <c r="F34" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G34" s="1">
         <v>95.833</v>
       </c>
-    </row>
-    <row r="33" ht="16.25" spans="1:8">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="6">
-        <v>89.062</v>
-      </c>
-      <c r="G33" s="6">
-        <v>85.938</v>
-      </c>
-      <c r="H33" s="6">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="34" ht="16.25" spans="1:8">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="6">
-        <v>95.833</v>
-      </c>
-      <c r="G34" s="6">
-        <v>81.25</v>
-      </c>
-      <c r="H34" s="6">
-        <v>94.792</v>
+      <c r="H34" s="1">
+        <v>99.479</v>
       </c>
     </row>
     <row r="35" ht="16.25" spans="1:8">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="17"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="1">
-        <v>92.188</v>
+        <v>97.396</v>
       </c>
       <c r="G35" s="1">
-        <v>81.25</v>
+        <v>95.833</v>
       </c>
       <c r="H35" s="1">
-        <v>94.792</v>
+        <v>99.479</v>
       </c>
     </row>
     <row r="36" ht="16.25" spans="1:8">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A36" s="11"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G36" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H36" s="1">
+        <v>98.958</v>
+      </c>
+    </row>
+    <row r="37" ht="16.25" spans="1:8">
+      <c r="A37" s="11"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F37" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G37" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H37" s="1">
         <v>99.479</v>
       </c>
-      <c r="G36" s="6">
-        <v>76.562</v>
-      </c>
-      <c r="H36" s="6">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="37" ht="16.25" spans="1:8">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="6">
+    </row>
+    <row r="38" ht="16.25" spans="1:8">
+      <c r="A38" s="11"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G38" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H38" s="1">
+        <v>98.958</v>
+      </c>
+    </row>
+    <row r="39" ht="16.25" spans="1:8">
+      <c r="A39" s="11"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G39" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H39" s="1">
+        <v>98.958</v>
+      </c>
+    </row>
+    <row r="40" ht="16.25" spans="1:8">
+      <c r="A40" s="11"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G40" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H40" s="1">
+        <v>97.396</v>
+      </c>
+    </row>
+    <row r="41" ht="16.25" spans="1:8">
+      <c r="A41" s="11"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G41" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H41" s="1">
+        <v>99.479</v>
+      </c>
+    </row>
+    <row r="42" ht="16.25" spans="1:8">
+      <c r="A42" s="11"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G42" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H42" s="1">
+        <v>99.479</v>
+      </c>
+    </row>
+    <row r="43" ht="16.25" spans="1:8">
+      <c r="A43" s="11"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2">
         <v>100</v>
       </c>
-      <c r="G37" s="6">
-        <v>85.938</v>
-      </c>
-      <c r="H37" s="6">
-        <v>93.705</v>
-      </c>
-    </row>
-    <row r="38" ht="16.25" spans="1:8">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6">
-        <v>81.25</v>
-      </c>
-      <c r="H38" s="6">
-        <v>96.354</v>
-      </c>
-    </row>
-    <row r="39" ht="16.25" spans="1:8">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6">
-        <v>88.021</v>
-      </c>
-      <c r="H39" s="6">
-        <v>94.792</v>
-      </c>
-    </row>
-    <row r="40" ht="16.25" spans="1:8">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6">
-        <v>86.458</v>
-      </c>
-      <c r="H40" s="6">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="41" ht="16.25" spans="1:8">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6">
-        <v>81.25</v>
-      </c>
-      <c r="H41" s="6">
-        <v>95.312</v>
-      </c>
-    </row>
-    <row r="42" ht="16.25" spans="1:8">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6">
-        <v>93.229</v>
-      </c>
-    </row>
-    <row r="43" ht="16.25" spans="1:8">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="16"/>
+      <c r="D43" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6">
-        <v>96.354</v>
+        <v>7</v>
+      </c>
+      <c r="F43" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="G43" s="1">
+        <v>90.104</v>
+      </c>
+      <c r="H43" s="1">
+        <v>96.875</v>
       </c>
     </row>
     <row r="44" ht="16.25" spans="1:8">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="16"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1">
         <v>95.833</v>
       </c>
+      <c r="G44" s="1">
+        <v>90.104</v>
+      </c>
+      <c r="H44" s="1">
+        <v>96.875</v>
+      </c>
     </row>
     <row r="45" ht="16.25" spans="1:8">
-      <c r="A45" s="8"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="17"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F45" s="1">
-        <v>100</v>
+        <v>95.833</v>
       </c>
       <c r="G45" s="1">
-        <v>81.25</v>
+        <v>90.104</v>
       </c>
       <c r="H45" s="1">
-        <v>92.708</v>
+        <v>95.833</v>
       </c>
     </row>
     <row r="46" ht="16.25" spans="1:8">
-      <c r="A46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F46" s="1">
-        <v>97.396</v>
+        <v>95.833</v>
       </c>
       <c r="G46" s="1">
+        <v>90.104</v>
+      </c>
+      <c r="H46" s="1">
         <v>95.833</v>
       </c>
-      <c r="H46" s="1">
-        <v>99.479</v>
-      </c>
     </row>
     <row r="47" ht="16.25" spans="1:8">
-      <c r="A47" s="8"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="G47" s="1">
+        <v>90.104</v>
+      </c>
+      <c r="H47" s="1">
         <v>97.396</v>
       </c>
-      <c r="G47" s="1">
-        <v>95.833</v>
-      </c>
-      <c r="H47" s="1">
-        <v>99.479</v>
-      </c>
     </row>
     <row r="48" ht="16.25" spans="1:8">
-      <c r="A48" s="8"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F48" s="1">
-        <v>97.396</v>
+        <v>95.833</v>
       </c>
       <c r="G48" s="1">
-        <v>95.833</v>
+        <v>90.104</v>
       </c>
       <c r="H48" s="1">
-        <v>98.958</v>
+        <v>96.354</v>
       </c>
     </row>
     <row r="49" ht="16.25" spans="1:8">
-      <c r="A49" s="8"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="1">
-        <v>98.958</v>
+        <v>100</v>
       </c>
       <c r="G49" s="1">
-        <v>95.833</v>
+        <v>90.104</v>
       </c>
       <c r="H49" s="1">
-        <v>99.479</v>
+        <v>97.396</v>
       </c>
     </row>
     <row r="50" ht="16.25" spans="1:8">
-      <c r="A50" s="8"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" s="1">
-        <v>98.958</v>
+        <v>100</v>
       </c>
       <c r="G50" s="1">
-        <v>95.833</v>
+        <v>90.104</v>
       </c>
       <c r="H50" s="1">
-        <v>98.958</v>
+        <v>97.917</v>
       </c>
     </row>
     <row r="51" ht="16.25" spans="1:8">
-      <c r="A51" s="8"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" s="1">
-        <v>98.958</v>
+        <v>100</v>
       </c>
       <c r="G51" s="1">
-        <v>95.833</v>
+        <v>90.104</v>
       </c>
       <c r="H51" s="1">
-        <v>98.958</v>
+        <v>98.438</v>
       </c>
     </row>
     <row r="52" ht="16.25" spans="1:8">
-      <c r="A52" s="8"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F52" s="1">
+        <v>100</v>
+      </c>
+      <c r="G52" s="1">
+        <v>90.104</v>
+      </c>
+      <c r="H52" s="1">
         <v>98.958</v>
       </c>
-      <c r="G52" s="1">
-        <v>95.833</v>
-      </c>
-      <c r="H52" s="1">
-        <v>97.396</v>
-      </c>
     </row>
     <row r="53" ht="16.25" spans="1:8">
-      <c r="A53" s="8"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="4"/>
+      <c r="C53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E53" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F53" s="1">
-        <v>98.958</v>
+        <v>85.938</v>
       </c>
       <c r="G53" s="1">
-        <v>95.833</v>
+        <v>92.708</v>
       </c>
       <c r="H53" s="1">
-        <v>99.479</v>
+        <v>95.312</v>
       </c>
     </row>
     <row r="54" ht="16.25" spans="1:8">
-      <c r="A54" s="8"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="4"/>
       <c r="E54" s="5" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1">
-        <v>98.958</v>
+        <v>85.938</v>
       </c>
       <c r="G54" s="1">
-        <v>95.833</v>
+        <v>92.708</v>
       </c>
       <c r="H54" s="1">
-        <v>99.479</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="55" ht="16.25" spans="1:8">
-      <c r="A55" s="8"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="3">
-        <v>100</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
+      </c>
+      <c r="F55" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G55" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H55" s="1">
+        <v>93.75</v>
       </c>
     </row>
     <row r="56" ht="16.25" spans="1:8">
-      <c r="A56" s="8"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="16"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F56" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G56" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H56" s="1">
+        <v>93.229</v>
+      </c>
     </row>
     <row r="57" ht="16.25" spans="1:8">
-      <c r="A57" s="8"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="17"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="F57" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G57" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H57" s="1">
+        <v>93.229</v>
+      </c>
     </row>
     <row r="58" ht="16.25" spans="1:8">
-      <c r="A58" s="8"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F58" s="1">
-        <v>100</v>
-      </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+        <v>85.938</v>
+      </c>
+      <c r="G58" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H58" s="1">
+        <v>94.271</v>
+      </c>
     </row>
     <row r="59" ht="16.25" spans="1:8">
-      <c r="A59" s="8"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="16"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F59" s="1">
-        <v>100</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+        <v>85.938</v>
+      </c>
+      <c r="G59" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H59" s="1">
+        <v>92.188</v>
+      </c>
     </row>
     <row r="60" ht="16.25" spans="1:8">
-      <c r="A60" s="8"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="17"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E60" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F60" s="1">
-        <v>100</v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+        <v>88.542</v>
+      </c>
+      <c r="G60" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H60" s="1">
+        <v>96.354</v>
+      </c>
     </row>
     <row r="61" ht="16.25" spans="1:8">
-      <c r="A61" s="8"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="F61" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G61" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H61" s="1">
+        <v>93.229</v>
+      </c>
     </row>
     <row r="62" ht="16.25" spans="1:8">
-      <c r="A62" s="8"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="4"/>
       <c r="E62" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F62" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G62" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H62" s="1">
+        <v>94.271</v>
+      </c>
     </row>
     <row r="63" ht="16.25" spans="1:8">
-      <c r="A63" s="8"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="4"/>
       <c r="E63" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F63" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G63" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H63" s="1">
+        <v>93.75</v>
+      </c>
     </row>
     <row r="64" ht="16.25" spans="1:8">
-      <c r="A64" s="8"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D64" s="4"/>
       <c r="E64" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="F64" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G64" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H64" s="1">
+        <v>94.792</v>
+      </c>
     </row>
     <row r="65" ht="16.25" spans="1:8">
-      <c r="A65" s="8"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="4"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="F65" s="1">
+        <v>95.312</v>
+      </c>
+      <c r="G65" s="1">
+        <v>91.146</v>
+      </c>
+      <c r="H65" s="1">
+        <v>94.271</v>
+      </c>
     </row>
     <row r="66" ht="16.25" spans="1:8">
-      <c r="A66" s="8"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="F66" s="1">
+        <v>95.312</v>
+      </c>
+      <c r="G66" s="1">
+        <v>91.146</v>
+      </c>
+      <c r="H66" s="1">
+        <v>96.354</v>
+      </c>
     </row>
     <row r="67" ht="16.25" spans="1:8">
-      <c r="A67" s="8"/>
-      <c r="B67" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="A67" s="11"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F67" s="1">
         <v>95.312</v>
@@ -2389,52 +2616,54 @@
         <v>91.146</v>
       </c>
       <c r="H67" s="1">
-        <v>94.271</v>
+        <v>95.833</v>
       </c>
     </row>
     <row r="68" ht="16.25" spans="1:8">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="16"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E68" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F68" s="1">
-        <v>95.312</v>
+        <v>100</v>
       </c>
       <c r="G68" s="1">
         <v>91.146</v>
       </c>
       <c r="H68" s="1">
-        <v>96.354</v>
+        <v>95.833</v>
       </c>
     </row>
     <row r="69" ht="16.25" spans="1:8">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="17"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1">
-        <v>95.312</v>
+        <v>100</v>
       </c>
       <c r="G69" s="1">
         <v>91.146</v>
       </c>
-      <c r="H69" s="1"/>
+      <c r="H69" s="1">
+        <v>96.354</v>
+      </c>
     </row>
     <row r="70" ht="16.25" spans="1:8">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A70" s="11"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F70" s="1">
         <v>100</v>
@@ -2443,75 +2672,79 @@
         <v>91.146</v>
       </c>
       <c r="H70" s="1">
-        <v>95.833</v>
+        <v>97.396</v>
       </c>
     </row>
     <row r="71" ht="16.25" spans="1:8">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="4"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E71" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F71" s="1">
-        <v>100</v>
+        <v>92.188</v>
       </c>
       <c r="G71" s="1">
-        <v>91.146</v>
+        <v>92.708</v>
       </c>
       <c r="H71" s="1">
-        <v>96.354</v>
+        <v>96.875</v>
       </c>
     </row>
     <row r="72" ht="16.25" spans="1:8">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="13"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1">
-        <v>100</v>
+        <v>92.188</v>
       </c>
       <c r="G72" s="1">
-        <v>91.146</v>
-      </c>
-      <c r="H72" s="1"/>
+        <v>92.708</v>
+      </c>
+      <c r="H72" s="1">
+        <v>97.917</v>
+      </c>
     </row>
     <row r="73" ht="16.25" spans="1:8">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>6</v>
+      <c r="A73" s="11"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="E73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G73" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H73" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="74" ht="16.25" spans="1:8">
+      <c r="A74" s="11"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="1">
-        <v>92.188</v>
-      </c>
-      <c r="G73" s="1">
-        <v>92.708</v>
-      </c>
-      <c r="H73" s="1">
-        <v>96.875</v>
-      </c>
-    </row>
-    <row r="74" ht="16.25" spans="1:8">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F74" s="1">
-        <v>92.188</v>
+        <v>99.479</v>
       </c>
       <c r="G74" s="1">
         <v>92.708</v>
@@ -2520,31 +2753,34 @@
         <v>97.917</v>
       </c>
     </row>
-    <row r="75" ht="16.25" spans="1:8">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="4"/>
+    <row r="75" ht="16.25" spans="1:9">
+      <c r="A75" s="11"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="15"/>
       <c r="E75" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F75" s="1">
-        <v>92.188</v>
+        <v>99.479</v>
       </c>
       <c r="G75" s="1">
         <v>92.708</v>
       </c>
-      <c r="H75" s="1"/>
+      <c r="H75" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="76" ht="16.25" spans="1:8">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A76" s="11"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="15"/>
       <c r="E76" s="5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F76" s="1">
         <v>99.479</v>
@@ -2557,12 +2793,12 @@
       </c>
     </row>
     <row r="77" ht="16.25" spans="1:8">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="4"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="15"/>
       <c r="E77" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F77" s="1">
         <v>99.479</v>
@@ -2571,16 +2807,16 @@
         <v>92.708</v>
       </c>
       <c r="H77" s="1">
-        <v>97.917</v>
-      </c>
-    </row>
-    <row r="78" ht="16.25" spans="1:9">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="4"/>
+        <v>98.438</v>
+      </c>
+    </row>
+    <row r="78" ht="16.25" spans="1:8">
+      <c r="A78" s="11"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="15"/>
       <c r="E78" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F78" s="1">
         <v>99.479</v>
@@ -2589,19 +2825,16 @@
         <v>92.708</v>
       </c>
       <c r="H78" s="1">
-        <v>99.479</v>
-      </c>
-      <c r="I78" t="s">
-        <v>36</v>
+        <v>97.396</v>
       </c>
     </row>
     <row r="79" ht="16.25" spans="1:8">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="4"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="15"/>
       <c r="E79" s="5" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F79" s="1">
         <v>99.479</v>
@@ -2614,12 +2847,12 @@
       </c>
     </row>
     <row r="80" ht="16.25" spans="1:8">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="4"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="15"/>
       <c r="E80" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F80" s="1">
         <v>99.479</v>
@@ -2628,16 +2861,16 @@
         <v>92.708</v>
       </c>
       <c r="H80" s="1">
-        <v>98.438</v>
+        <v>97.396</v>
       </c>
     </row>
     <row r="81" ht="16.25" spans="1:8">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="4"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="15"/>
       <c r="E81" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F81" s="1">
         <v>99.479</v>
@@ -2650,12 +2883,12 @@
       </c>
     </row>
     <row r="82" ht="16.25" spans="1:8">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="4"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="15"/>
       <c r="E82" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F82" s="1">
         <v>99.479</v>
@@ -2668,12 +2901,12 @@
       </c>
     </row>
     <row r="83" ht="16.25" spans="1:8">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="4"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="15"/>
       <c r="E83" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F83" s="1">
         <v>99.479</v>
@@ -2682,16 +2915,16 @@
         <v>92.708</v>
       </c>
       <c r="H83" s="1">
-        <v>97.396</v>
+        <v>97.917</v>
       </c>
     </row>
     <row r="84" ht="16.25" spans="1:8">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="4"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="15"/>
       <c r="E84" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="F84" s="1">
         <v>99.479</v>
@@ -2700,16 +2933,16 @@
         <v>92.708</v>
       </c>
       <c r="H84" s="1">
-        <v>97.396</v>
+        <v>97.917</v>
       </c>
     </row>
     <row r="85" ht="16.25" spans="1:8">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="4"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="15"/>
       <c r="E85" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F85" s="1">
         <v>99.479</v>
@@ -2722,12 +2955,12 @@
       </c>
     </row>
     <row r="86" ht="16.25" spans="1:8">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="4"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="15"/>
       <c r="E86" s="5" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F86" s="1">
         <v>99.479</v>
@@ -2736,16 +2969,16 @@
         <v>92.708</v>
       </c>
       <c r="H86" s="1">
-        <v>97.917</v>
-      </c>
-    </row>
-    <row r="87" ht="16.25" spans="1:8">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="4"/>
+        <v>98.438</v>
+      </c>
+    </row>
+    <row r="87" ht="16.25" spans="1:9">
+      <c r="A87" s="11"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="15"/>
       <c r="E87" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F87" s="1">
         <v>99.479</v>
@@ -2754,16 +2987,17 @@
         <v>92.708</v>
       </c>
       <c r="H87" s="1">
-        <v>97.917</v>
-      </c>
-    </row>
-    <row r="88" ht="16.25" spans="1:8">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="4"/>
+        <v>97.396</v>
+      </c>
+      <c r="I87" s="23"/>
+    </row>
+    <row r="88" ht="16.25" spans="1:9">
+      <c r="A88" s="11"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="15"/>
       <c r="E88" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F88" s="1">
         <v>99.479</v>
@@ -2774,14 +3008,15 @@
       <c r="H88" s="1">
         <v>97.917</v>
       </c>
+      <c r="I88" s="23"/>
     </row>
     <row r="89" ht="16.25" spans="1:8">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="4"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="17"/>
       <c r="E89" s="5" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F89" s="1">
         <v>99.479</v>
@@ -2790,104 +3025,2109 @@
         <v>92.708</v>
       </c>
       <c r="H89" s="1">
-        <v>98.438</v>
+        <v>97.396</v>
       </c>
     </row>
     <row r="90" ht="16.25" spans="1:9">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="4"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="19"/>
+      <c r="D90" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E90" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F90" s="1">
-        <v>99.479</v>
-      </c>
-      <c r="G90" s="1">
-        <v>92.708</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
       <c r="H90" s="1">
         <v>97.396</v>
       </c>
-      <c r="I90" s="19"/>
+      <c r="I90" s="24" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="91" ht="16.25" spans="1:9">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="4"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="15"/>
       <c r="E91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1">
+        <v>86.979</v>
+      </c>
+      <c r="I91" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" ht="16.25" spans="1:9">
+      <c r="A92" s="11"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1">
+        <v>75.521</v>
+      </c>
+      <c r="I92" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" ht="16.25" spans="1:9">
+      <c r="A93" s="11"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1">
+        <v>81.771</v>
+      </c>
+      <c r="I93" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" ht="16.25" spans="1:9">
+      <c r="A94" s="11"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="I94" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" ht="21" spans="1:8">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" ht="16.25" spans="1:8">
+      <c r="A103" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="2">
+        <v>10</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" s="22">
+        <v>85.938</v>
+      </c>
+      <c r="G103" s="22">
+        <v>63.021</v>
+      </c>
+      <c r="H103" s="22">
+        <v>93.229</v>
+      </c>
+    </row>
+    <row r="104" ht="16.25" spans="1:8">
+      <c r="A104" s="3"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G104" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H104" s="1">
+        <v>98.438</v>
+      </c>
+    </row>
+    <row r="105" ht="16.25" spans="1:8">
+      <c r="A105" s="3"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G105" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H105" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="106" ht="16.25" spans="1:8">
+      <c r="A106" s="3"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G106" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H106" s="1">
+        <v>99.479</v>
+      </c>
+    </row>
+    <row r="107" ht="16.25" spans="1:8">
+      <c r="A107" s="3"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G107" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H107" s="1">
+        <v>98.438</v>
+      </c>
+    </row>
+    <row r="108" ht="16.25" spans="1:8">
+      <c r="A108" s="3"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" s="22">
+        <v>95.833</v>
+      </c>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22">
+        <v>92.708</v>
+      </c>
+    </row>
+    <row r="109" ht="16.25" spans="1:8">
+      <c r="A109" s="3"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G109" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H109" s="1">
+        <v>98.958</v>
+      </c>
+    </row>
+    <row r="110" ht="16.25" spans="1:8">
+      <c r="A110" s="3"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G110" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H110" s="1">
+        <v>98.438</v>
+      </c>
+    </row>
+    <row r="111" ht="16.25" spans="1:8">
+      <c r="A111" s="3"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G111" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H111" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" ht="16.25" spans="1:8">
+      <c r="A112" s="3"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G112" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="H112" s="1">
+        <v>98.438</v>
+      </c>
+    </row>
+    <row r="113" ht="16.25" spans="1:8">
+      <c r="A113" s="3"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="6">
+        <v>100</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="G113" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" ht="16.25" spans="1:8">
+      <c r="A114" s="3"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="G114" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" ht="16.25" spans="1:8">
+      <c r="A115" s="3"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F115" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="G115" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" ht="16.25" spans="1:8">
+      <c r="A116" s="3"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="1">
+        <v>100</v>
+      </c>
+      <c r="G116" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" ht="16.25" spans="1:8">
+      <c r="A117" s="3"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="1">
+        <v>100</v>
+      </c>
+      <c r="G117" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" ht="16.25" spans="1:8">
+      <c r="A118" s="3"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F118" s="1">
+        <v>100</v>
+      </c>
+      <c r="G118" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" ht="16.25" spans="1:8">
+      <c r="A119" s="3"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G119" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H119" s="1">
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="120" ht="16.25" spans="1:8">
+      <c r="A120" s="3"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G120" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H120" s="1">
+        <v>94.792</v>
+      </c>
+    </row>
+    <row r="121" ht="16.25" spans="1:8">
+      <c r="A121" s="3"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G121" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H121" s="1">
+        <v>94.792</v>
+      </c>
+    </row>
+    <row r="122" ht="16.25" spans="1:8">
+      <c r="A122" s="3"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G122" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" ht="16.25" spans="1:8">
+      <c r="A123" s="3"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F123" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G123" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" ht="16.25" spans="1:8">
+      <c r="A124" s="3"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F124" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G124" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" ht="16.25" spans="1:8">
+      <c r="A125" s="3"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G125" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H125" s="1">
+        <v>94.792</v>
+      </c>
+    </row>
+    <row r="126" ht="16.25" spans="1:8">
+      <c r="A126" s="3"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G126" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H126" s="1">
+        <v>94.271</v>
+      </c>
+    </row>
+    <row r="127" ht="16.25" spans="1:8">
+      <c r="A127" s="3"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1">
+        <v>96.354</v>
+      </c>
+    </row>
+    <row r="128" ht="16.25" spans="1:8">
+      <c r="A128" s="3"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" ht="16.25" spans="1:8">
+      <c r="A129" s="3"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" ht="16.25" spans="1:8">
+      <c r="A130" s="3"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F130" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G130" s="1">
+        <v>86.458</v>
+      </c>
+      <c r="H130" s="1"/>
+    </row>
+    <row r="131" ht="16.25" spans="1:8">
+      <c r="A131" s="3"/>
+      <c r="B131" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F131" s="22">
+        <v>90.625</v>
+      </c>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
+    </row>
+    <row r="132" ht="16.25" spans="1:8">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" s="22">
+        <v>92.188</v>
+      </c>
+      <c r="G132" s="22">
+        <v>88.021</v>
+      </c>
+      <c r="H132" s="22">
+        <v>96.875</v>
+      </c>
+    </row>
+    <row r="133" ht="16.25" spans="1:8">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" s="1">
+        <v>95.312</v>
+      </c>
+      <c r="G133" s="1">
+        <v>86.979</v>
+      </c>
+      <c r="H133" s="1">
+        <v>92.188</v>
+      </c>
+    </row>
+    <row r="134" ht="16.25" spans="1:8">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F134" s="22">
+        <v>98.958</v>
+      </c>
+      <c r="G134" s="22">
+        <v>89.583</v>
+      </c>
+      <c r="H134" s="22">
+        <v>95.833</v>
+      </c>
+    </row>
+    <row r="135" ht="16.25" spans="1:8">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F135" s="22">
+        <v>98.958</v>
+      </c>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22">
+        <v>95.321</v>
+      </c>
+    </row>
+    <row r="136" ht="16.25" spans="1:8">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" s="1">
+        <v>100</v>
+      </c>
+      <c r="G136" s="1">
+        <v>86.979</v>
+      </c>
+      <c r="H136" s="1">
+        <v>94.271</v>
+      </c>
+    </row>
+    <row r="137" ht="16.25" spans="1:8">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" s="22">
+        <v>91.667</v>
+      </c>
+      <c r="G137" s="22">
+        <v>76.562</v>
+      </c>
+      <c r="H137" s="22">
+        <v>95.833</v>
+      </c>
+    </row>
+    <row r="138" ht="16.25" spans="1:8">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F138" s="22">
+        <v>89.062</v>
+      </c>
+      <c r="G138" s="22">
+        <v>85.938</v>
+      </c>
+      <c r="H138" s="22">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="139" ht="16.25" spans="1:8">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F139" s="22">
+        <v>95.833</v>
+      </c>
+      <c r="G139" s="22">
+        <v>81.25</v>
+      </c>
+      <c r="H139" s="22">
+        <v>94.792</v>
+      </c>
+    </row>
+    <row r="140" ht="16.25" spans="1:8">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" s="1">
+        <v>92.188</v>
+      </c>
+      <c r="G140" s="1">
+        <v>81.25</v>
+      </c>
+      <c r="H140" s="1">
+        <v>94.792</v>
+      </c>
+    </row>
+    <row r="141" ht="16.25" spans="1:8">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F141" s="22">
+        <v>99.479</v>
+      </c>
+      <c r="G141" s="22">
+        <v>76.562</v>
+      </c>
+      <c r="H141" s="22">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="142" ht="16.25" spans="1:8">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F142" s="22">
+        <v>100</v>
+      </c>
+      <c r="G142" s="22">
+        <v>85.938</v>
+      </c>
+      <c r="H142" s="22">
+        <v>93.705</v>
+      </c>
+    </row>
+    <row r="143" ht="16.25" spans="1:8">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F143" s="22"/>
+      <c r="G143" s="22">
+        <v>81.25</v>
+      </c>
+      <c r="H143" s="22">
+        <v>96.354</v>
+      </c>
+    </row>
+    <row r="144" ht="16.25" spans="1:8">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22">
+        <v>88.021</v>
+      </c>
+      <c r="H144" s="22">
+        <v>94.792</v>
+      </c>
+    </row>
+    <row r="145" ht="16.25" spans="1:8">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22">
+        <v>86.458</v>
+      </c>
+      <c r="H145" s="22">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="146" ht="16.25" spans="1:8">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F146" s="22"/>
+      <c r="G146" s="22">
+        <v>81.25</v>
+      </c>
+      <c r="H146" s="22">
+        <v>95.312</v>
+      </c>
+    </row>
+    <row r="147" ht="16.25" spans="1:8">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22">
+        <v>93.229</v>
+      </c>
+    </row>
+    <row r="148" ht="16.25" spans="1:8">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22">
+        <v>96.354</v>
+      </c>
+    </row>
+    <row r="149" ht="16.25" spans="1:8">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F149" s="22"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22">
+        <v>95.833</v>
+      </c>
+    </row>
+    <row r="150" ht="16.25" spans="1:8">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="1">
+        <v>100</v>
+      </c>
+      <c r="G150" s="1">
+        <v>81.25</v>
+      </c>
+      <c r="H150" s="1">
+        <v>92.708</v>
+      </c>
+    </row>
+    <row r="151" ht="16.25" spans="1:8">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="1">
+        <v>100</v>
+      </c>
+      <c r="G151" s="1">
+        <v>81.25</v>
+      </c>
+      <c r="H151" s="22"/>
+    </row>
+    <row r="152" ht="16.25" spans="1:8">
+      <c r="A152" s="3"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F152" s="1">
+        <v>100</v>
+      </c>
+      <c r="G152" s="1">
+        <v>81.25</v>
+      </c>
+      <c r="H152" s="1"/>
+    </row>
+    <row r="153" ht="16.25" spans="1:8">
+      <c r="A153" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="2">
+        <v>10</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G153" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H153" s="1">
         <v>99.479</v>
       </c>
-      <c r="G91" s="1">
-        <v>92.708</v>
-      </c>
-      <c r="H91" s="1">
+    </row>
+    <row r="154" ht="16.25" spans="1:8">
+      <c r="A154" s="3"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G154" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H154" s="1">
+        <v>99.479</v>
+      </c>
+    </row>
+    <row r="155" ht="16.25" spans="1:8">
+      <c r="A155" s="3"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" s="1">
+        <v>97.396</v>
+      </c>
+      <c r="G155" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H155" s="1">
+        <v>98.958</v>
+      </c>
+    </row>
+    <row r="156" ht="16.25" spans="1:8">
+      <c r="A156" s="3"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G156" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H156" s="1">
+        <v>99.479</v>
+      </c>
+    </row>
+    <row r="157" ht="16.25" spans="1:8">
+      <c r="A157" s="3"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G157" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H157" s="1">
+        <v>98.958</v>
+      </c>
+    </row>
+    <row r="158" ht="16.25" spans="1:8">
+      <c r="A158" s="3"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G158" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H158" s="1">
+        <v>98.958</v>
+      </c>
+    </row>
+    <row r="159" ht="16.25" spans="1:8">
+      <c r="A159" s="3"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G159" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H159" s="1">
+        <v>97.396</v>
+      </c>
+    </row>
+    <row r="160" ht="16.25" spans="1:8">
+      <c r="A160" s="3"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G160" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H160" s="1">
+        <v>99.479</v>
+      </c>
+    </row>
+    <row r="161" ht="16.25" spans="1:8">
+      <c r="A161" s="3"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" s="1">
+        <v>98.958</v>
+      </c>
+      <c r="G161" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="H161" s="1">
+        <v>99.479</v>
+      </c>
+    </row>
+    <row r="162" ht="16.25" spans="1:8">
+      <c r="A162" s="3"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="6">
+        <v>100</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="G162" s="1">
+        <v>90.104</v>
+      </c>
+      <c r="H162" s="1">
+        <v>96.875</v>
+      </c>
+    </row>
+    <row r="163" ht="16.25" spans="1:8">
+      <c r="A163" s="3"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="G163" s="1">
+        <v>90.104</v>
+      </c>
+      <c r="H163" s="1">
+        <v>96.875</v>
+      </c>
+    </row>
+    <row r="164" ht="16.25" spans="1:8">
+      <c r="A164" s="3"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="G164" s="1">
+        <v>90.104</v>
+      </c>
+      <c r="H164" s="1">
+        <v>95.833</v>
+      </c>
+    </row>
+    <row r="165" ht="16.25" spans="1:8">
+      <c r="A165" s="3"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="G165" s="1">
+        <v>90.104</v>
+      </c>
+      <c r="H165" s="1">
+        <v>95.833</v>
+      </c>
+    </row>
+    <row r="166" ht="16.25" spans="1:8">
+      <c r="A166" s="3"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="G166" s="1">
+        <v>90.104</v>
+      </c>
+      <c r="H166" s="1">
+        <v>97.396</v>
+      </c>
+    </row>
+    <row r="167" ht="16.25" spans="1:8">
+      <c r="A167" s="3"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F167" s="1">
+        <v>95.833</v>
+      </c>
+      <c r="G167" s="1">
+        <v>90.104</v>
+      </c>
+      <c r="H167" s="1">
+        <v>96.354</v>
+      </c>
+    </row>
+    <row r="168" ht="16.25" spans="1:8">
+      <c r="A168" s="3"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" s="1">
+        <v>100</v>
+      </c>
+      <c r="G168" s="1">
+        <v>90.104</v>
+      </c>
+      <c r="H168" s="1">
+        <v>97.396</v>
+      </c>
+    </row>
+    <row r="169" ht="16.25" spans="1:8">
+      <c r="A169" s="3"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F169" s="1">
+        <v>100</v>
+      </c>
+      <c r="G169" s="1">
+        <v>90.104</v>
+      </c>
+      <c r="H169" s="1">
         <v>97.917</v>
       </c>
-      <c r="I91" s="19"/>
-    </row>
-    <row r="92" ht="16.25" spans="1:9">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="5" t="s">
+    </row>
+    <row r="170" ht="16.25" spans="1:8">
+      <c r="A170" s="3"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="1">
+        <v>100</v>
+      </c>
+      <c r="G170" s="1">
+        <v>90.104</v>
+      </c>
+      <c r="H170" s="1">
+        <v>98.438</v>
+      </c>
+    </row>
+    <row r="171" ht="16.25" spans="1:8">
+      <c r="A171" s="3"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171" s="1">
+        <v>100</v>
+      </c>
+      <c r="G171" s="1">
+        <v>90.104</v>
+      </c>
+      <c r="H171" s="1">
+        <v>98.958</v>
+      </c>
+    </row>
+    <row r="172" ht="16.25" spans="1:8">
+      <c r="A172" s="3"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G172" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H172" s="1">
+        <v>95.312</v>
+      </c>
+    </row>
+    <row r="173" ht="16.25" spans="1:8">
+      <c r="A173" s="3"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G173" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H173" s="1">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="174" ht="16.25" spans="1:8">
+      <c r="A174" s="3"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G174" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H174" s="1">
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="175" ht="16.25" spans="1:8">
+      <c r="A175" s="3"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G175" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="176" ht="16.25" spans="1:8">
+      <c r="A176" s="3"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F176" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G176" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H176" s="1"/>
+    </row>
+    <row r="177" ht="16.25" spans="1:8">
+      <c r="A177" s="3"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F177" s="1">
+        <v>85.938</v>
+      </c>
+      <c r="G177" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H177" s="1"/>
+    </row>
+    <row r="178" ht="16.25" spans="1:8">
+      <c r="A178" s="3"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F92" s="1">
+      <c r="E178" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G178" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H178" s="1">
+        <v>96.354</v>
+      </c>
+    </row>
+    <row r="179" ht="16.25" spans="1:8">
+      <c r="A179" s="3"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G179" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H179" s="1">
+        <v>93.229</v>
+      </c>
+    </row>
+    <row r="180" ht="16.25" spans="1:8">
+      <c r="A180" s="3"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G180" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H180" s="1">
+        <v>94.271</v>
+      </c>
+    </row>
+    <row r="181" ht="16.25" spans="1:8">
+      <c r="A181" s="3"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G181" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="182" ht="16.25" spans="1:8">
+      <c r="A182" s="3"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F182" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G182" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" ht="16.25" spans="1:8">
+      <c r="A183" s="3"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F183" s="1">
+        <v>88.542</v>
+      </c>
+      <c r="G183" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" ht="16.25" spans="1:8">
+      <c r="A184" s="3"/>
+      <c r="B184" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184" s="1">
+        <v>95.312</v>
+      </c>
+      <c r="G184" s="1">
+        <v>91.146</v>
+      </c>
+      <c r="H184" s="1">
+        <v>94.271</v>
+      </c>
+    </row>
+    <row r="185" ht="16.25" spans="1:8">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" s="1">
+        <v>95.312</v>
+      </c>
+      <c r="G185" s="1">
+        <v>91.146</v>
+      </c>
+      <c r="H185" s="1">
+        <v>96.354</v>
+      </c>
+    </row>
+    <row r="186" ht="16.25" spans="1:8">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F186" s="1">
+        <v>95.312</v>
+      </c>
+      <c r="G186" s="1">
+        <v>91.146</v>
+      </c>
+      <c r="H186" s="1"/>
+    </row>
+    <row r="187" ht="16.25" spans="1:8">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" s="1">
+        <v>100</v>
+      </c>
+      <c r="G187" s="1">
+        <v>91.146</v>
+      </c>
+      <c r="H187" s="1">
+        <v>95.833</v>
+      </c>
+    </row>
+    <row r="188" ht="16.25" spans="1:8">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F188" s="1">
+        <v>100</v>
+      </c>
+      <c r="G188" s="1">
+        <v>91.146</v>
+      </c>
+      <c r="H188" s="1">
+        <v>96.354</v>
+      </c>
+    </row>
+    <row r="189" ht="16.25" spans="1:8">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F189" s="1">
+        <v>100</v>
+      </c>
+      <c r="G189" s="1">
+        <v>91.146</v>
+      </c>
+      <c r="H189" s="1"/>
+    </row>
+    <row r="190" ht="16.25" spans="1:8">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F190" s="1">
+        <v>92.188</v>
+      </c>
+      <c r="G190" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H190" s="1">
+        <v>96.875</v>
+      </c>
+    </row>
+    <row r="191" ht="16.25" spans="1:8">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F191" s="1">
+        <v>92.188</v>
+      </c>
+      <c r="G191" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H191" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="192" ht="16.25" spans="1:8">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F192" s="1">
+        <v>92.188</v>
+      </c>
+      <c r="G192" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H192" s="1"/>
+    </row>
+    <row r="193" ht="16.25" spans="1:8">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F193" s="1">
         <v>99.479</v>
       </c>
-      <c r="G92" s="1">
-        <v>92.708</v>
-      </c>
-      <c r="H92" s="1">
+      <c r="G193" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H193" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="194" ht="16.25" spans="1:8">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G194" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H194" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="195" ht="16.25" spans="1:8">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F195" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G195" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H195" s="1">
+        <v>99.479</v>
+      </c>
+    </row>
+    <row r="196" ht="16.25" spans="1:8">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F196" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G196" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H196" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="197" ht="16.25" spans="1:8">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F197" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G197" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H197" s="1">
+        <v>98.438</v>
+      </c>
+    </row>
+    <row r="198" ht="16.25" spans="1:8">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F198" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G198" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H198" s="1">
         <v>97.396</v>
       </c>
-      <c r="I92" s="5"/>
+    </row>
+    <row r="199" ht="16.25" spans="1:8">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G199" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H199" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="200" ht="16.25" spans="1:8">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F200" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G200" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H200" s="1">
+        <v>97.396</v>
+      </c>
+    </row>
+    <row r="201" ht="16.25" spans="1:8">
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F201" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G201" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H201" s="1">
+        <v>97.396</v>
+      </c>
+    </row>
+    <row r="202" ht="16.25" spans="1:8">
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F202" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G202" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H202" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="203" ht="16.25" spans="1:8">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F203" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G203" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H203" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="204" ht="16.25" spans="1:8">
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F204" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G204" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H204" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="205" ht="16.25" spans="1:8">
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F205" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G205" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H205" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="206" ht="16.25" spans="1:8">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G206" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H206" s="1">
+        <v>98.438</v>
+      </c>
+    </row>
+    <row r="207" ht="16.25" spans="1:8">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F207" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G207" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H207" s="1">
+        <v>97.396</v>
+      </c>
+    </row>
+    <row r="208" ht="16.25" spans="1:8">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F208" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G208" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H208" s="1">
+        <v>97.917</v>
+      </c>
+    </row>
+    <row r="209" ht="16.25" spans="1:8">
+      <c r="A209" s="10"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" s="1">
+        <v>99.479</v>
+      </c>
+      <c r="G209" s="1">
+        <v>92.708</v>
+      </c>
+      <c r="H209" s="1">
+        <v>97.396</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A2:A45"/>
-    <mergeCell ref="A46:A92"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="B26:B45"/>
-    <mergeCell ref="B46:B66"/>
-    <mergeCell ref="B67:B92"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C32:C45"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="C73:C92"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D36:D45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D49:D54"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D92"/>
+  <mergeCells count="71">
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="A34:A94"/>
+    <mergeCell ref="A103:A152"/>
+    <mergeCell ref="A153:A209"/>
+    <mergeCell ref="B2:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B64"/>
+    <mergeCell ref="B65:B89"/>
+    <mergeCell ref="B103:B130"/>
+    <mergeCell ref="B131:B152"/>
+    <mergeCell ref="B153:B183"/>
+    <mergeCell ref="B184:B209"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C42"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="C53:C64"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="C71:C89"/>
+    <mergeCell ref="C103:C112"/>
+    <mergeCell ref="C113:C118"/>
+    <mergeCell ref="C119:C130"/>
+    <mergeCell ref="C131:C136"/>
+    <mergeCell ref="C137:C152"/>
+    <mergeCell ref="C153:C161"/>
+    <mergeCell ref="C162:C171"/>
+    <mergeCell ref="C172:C183"/>
+    <mergeCell ref="C184:C189"/>
+    <mergeCell ref="C190:C209"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D53:D59"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D89"/>
+    <mergeCell ref="D90:D94"/>
+    <mergeCell ref="D103:D107"/>
+    <mergeCell ref="D108:D112"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="D119:D124"/>
+    <mergeCell ref="D125:D130"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="D141:D152"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="D156:D161"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="D168:D171"/>
+    <mergeCell ref="D172:D177"/>
+    <mergeCell ref="D178:D183"/>
+    <mergeCell ref="D184:D186"/>
+    <mergeCell ref="D187:D189"/>
+    <mergeCell ref="D190:D192"/>
+    <mergeCell ref="D193:D209"/>
+    <mergeCell ref="B90:C94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -910,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,27 +942,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1334,10 +1313,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I209"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1980,7 +1959,7 @@
       </c>
     </row>
     <row r="34" ht="16.25" spans="1:8">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2006,7 +1985,7 @@
       </c>
     </row>
     <row r="35" ht="16.25" spans="1:8">
-      <c r="A35" s="11"/>
+      <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="4"/>
@@ -2024,7 +2003,7 @@
       </c>
     </row>
     <row r="36" ht="16.25" spans="1:8">
-      <c r="A36" s="11"/>
+      <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="4"/>
@@ -2042,7 +2021,7 @@
       </c>
     </row>
     <row r="37" ht="16.25" spans="1:8">
-      <c r="A37" s="11"/>
+      <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="4" t="s">
@@ -2062,7 +2041,7 @@
       </c>
     </row>
     <row r="38" ht="16.25" spans="1:8">
-      <c r="A38" s="11"/>
+      <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
@@ -2080,7 +2059,7 @@
       </c>
     </row>
     <row r="39" ht="16.25" spans="1:8">
-      <c r="A39" s="11"/>
+      <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="4"/>
@@ -2098,7 +2077,7 @@
       </c>
     </row>
     <row r="40" ht="16.25" spans="1:8">
-      <c r="A40" s="11"/>
+      <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="4"/>
@@ -2116,7 +2095,7 @@
       </c>
     </row>
     <row r="41" ht="16.25" spans="1:8">
-      <c r="A41" s="11"/>
+      <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="4"/>
@@ -2134,7 +2113,7 @@
       </c>
     </row>
     <row r="42" ht="16.25" spans="1:8">
-      <c r="A42" s="11"/>
+      <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="4"/>
@@ -2152,7 +2131,7 @@
       </c>
     </row>
     <row r="43" ht="16.25" spans="1:8">
-      <c r="A43" s="11"/>
+      <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2">
         <v>100</v>
@@ -2174,7 +2153,7 @@
       </c>
     </row>
     <row r="44" ht="16.25" spans="1:8">
-      <c r="A44" s="11"/>
+      <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="4"/>
@@ -2192,7 +2171,7 @@
       </c>
     </row>
     <row r="45" ht="16.25" spans="1:8">
-      <c r="A45" s="11"/>
+      <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="4"/>
@@ -2210,7 +2189,7 @@
       </c>
     </row>
     <row r="46" ht="16.25" spans="1:8">
-      <c r="A46" s="11"/>
+      <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="4"/>
@@ -2228,7 +2207,7 @@
       </c>
     </row>
     <row r="47" ht="16.25" spans="1:8">
-      <c r="A47" s="11"/>
+      <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="4"/>
@@ -2246,7 +2225,7 @@
       </c>
     </row>
     <row r="48" ht="16.25" spans="1:8">
-      <c r="A48" s="11"/>
+      <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4"/>
@@ -2264,7 +2243,7 @@
       </c>
     </row>
     <row r="49" ht="16.25" spans="1:8">
-      <c r="A49" s="11"/>
+      <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="4" t="s">
@@ -2284,7 +2263,7 @@
       </c>
     </row>
     <row r="50" ht="16.25" spans="1:8">
-      <c r="A50" s="11"/>
+      <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="4"/>
@@ -2302,7 +2281,7 @@
       </c>
     </row>
     <row r="51" ht="16.25" spans="1:8">
-      <c r="A51" s="11"/>
+      <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="4"/>
@@ -2320,7 +2299,7 @@
       </c>
     </row>
     <row r="52" ht="16.25" spans="1:8">
-      <c r="A52" s="11"/>
+      <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="4"/>
@@ -2338,7 +2317,7 @@
       </c>
     </row>
     <row r="53" ht="16.25" spans="1:8">
-      <c r="A53" s="11"/>
+      <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
         <v>13</v>
@@ -2360,7 +2339,7 @@
       </c>
     </row>
     <row r="54" ht="16.25" spans="1:8">
-      <c r="A54" s="11"/>
+      <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="4"/>
@@ -2378,7 +2357,7 @@
       </c>
     </row>
     <row r="55" ht="16.25" spans="1:8">
-      <c r="A55" s="11"/>
+      <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="4"/>
@@ -2396,7 +2375,7 @@
       </c>
     </row>
     <row r="56" ht="16.25" spans="1:8">
-      <c r="A56" s="11"/>
+      <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="4"/>
@@ -2414,7 +2393,7 @@
       </c>
     </row>
     <row r="57" ht="16.25" spans="1:8">
-      <c r="A57" s="11"/>
+      <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="4"/>
@@ -2432,7 +2411,7 @@
       </c>
     </row>
     <row r="58" ht="16.25" spans="1:8">
-      <c r="A58" s="11"/>
+      <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="4"/>
@@ -2450,7 +2429,7 @@
       </c>
     </row>
     <row r="59" ht="16.25" spans="1:8">
-      <c r="A59" s="11"/>
+      <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="4"/>
@@ -2468,7 +2447,7 @@
       </c>
     </row>
     <row r="60" ht="16.25" spans="1:8">
-      <c r="A60" s="11"/>
+      <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="4" t="s">
@@ -2488,7 +2467,7 @@
       </c>
     </row>
     <row r="61" ht="16.25" spans="1:8">
-      <c r="A61" s="11"/>
+      <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="4"/>
@@ -2506,7 +2485,7 @@
       </c>
     </row>
     <row r="62" ht="16.25" spans="1:8">
-      <c r="A62" s="11"/>
+      <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="4"/>
@@ -2524,7 +2503,7 @@
       </c>
     </row>
     <row r="63" ht="16.25" spans="1:8">
-      <c r="A63" s="11"/>
+      <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="4"/>
@@ -2542,7 +2521,7 @@
       </c>
     </row>
     <row r="64" ht="16.25" spans="1:8">
-      <c r="A64" s="11"/>
+      <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="4"/>
@@ -2560,7 +2539,7 @@
       </c>
     </row>
     <row r="65" ht="16.25" spans="1:8">
-      <c r="A65" s="11"/>
+      <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
         <v>19</v>
       </c>
@@ -2584,7 +2563,7 @@
       </c>
     </row>
     <row r="66" ht="16.25" spans="1:8">
-      <c r="A66" s="11"/>
+      <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="4"/>
@@ -2602,7 +2581,7 @@
       </c>
     </row>
     <row r="67" ht="16.25" spans="1:8">
-      <c r="A67" s="11"/>
+      <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="4"/>
@@ -2620,7 +2599,7 @@
       </c>
     </row>
     <row r="68" ht="16.25" spans="1:8">
-      <c r="A68" s="11"/>
+      <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="4" t="s">
@@ -2640,7 +2619,7 @@
       </c>
     </row>
     <row r="69" ht="16.25" spans="1:8">
-      <c r="A69" s="11"/>
+      <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="4"/>
@@ -2658,7 +2637,7 @@
       </c>
     </row>
     <row r="70" ht="16.25" spans="1:8">
-      <c r="A70" s="11"/>
+      <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="4"/>
@@ -2676,9 +2655,9 @@
       </c>
     </row>
     <row r="71" ht="16.25" spans="1:8">
-      <c r="A71" s="11"/>
+      <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -2698,9 +2677,9 @@
       </c>
     </row>
     <row r="72" ht="16.25" spans="1:8">
-      <c r="A72" s="11"/>
+      <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="3"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5" t="s">
         <v>8</v>
@@ -2716,10 +2695,10 @@
       </c>
     </row>
     <row r="73" ht="16.25" spans="1:8">
-      <c r="A73" s="11"/>
+      <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14" t="s">
+      <c r="C73" s="3"/>
+      <c r="D73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="5" t="s">
@@ -2736,10 +2715,10 @@
       </c>
     </row>
     <row r="74" ht="16.25" spans="1:8">
-      <c r="A74" s="11"/>
+      <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="15"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="8"/>
       <c r="E74" s="5" t="s">
         <v>8</v>
       </c>
@@ -2754,10 +2733,10 @@
       </c>
     </row>
     <row r="75" ht="16.25" spans="1:9">
-      <c r="A75" s="11"/>
+      <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="15"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="8"/>
       <c r="E75" s="5" t="s">
         <v>26</v>
       </c>
@@ -2775,10 +2754,10 @@
       </c>
     </row>
     <row r="76" ht="16.25" spans="1:8">
-      <c r="A76" s="11"/>
+      <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="15"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="8"/>
       <c r="E76" s="5" t="s">
         <v>28</v>
       </c>
@@ -2793,10 +2772,10 @@
       </c>
     </row>
     <row r="77" ht="16.25" spans="1:8">
-      <c r="A77" s="11"/>
+      <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="15"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="8"/>
       <c r="E77" s="5" t="s">
         <v>23</v>
       </c>
@@ -2811,10 +2790,10 @@
       </c>
     </row>
     <row r="78" ht="16.25" spans="1:8">
-      <c r="A78" s="11"/>
+      <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="15"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="5" t="s">
         <v>29</v>
       </c>
@@ -2829,10 +2808,10 @@
       </c>
     </row>
     <row r="79" ht="16.25" spans="1:8">
-      <c r="A79" s="11"/>
+      <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="15"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="5" t="s">
         <v>9</v>
       </c>
@@ -2847,10 +2826,10 @@
       </c>
     </row>
     <row r="80" ht="16.25" spans="1:8">
-      <c r="A80" s="11"/>
+      <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="15"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="5" t="s">
         <v>30</v>
       </c>
@@ -2865,10 +2844,10 @@
       </c>
     </row>
     <row r="81" ht="16.25" spans="1:8">
-      <c r="A81" s="11"/>
+      <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="15"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="5" t="s">
         <v>31</v>
       </c>
@@ -2883,10 +2862,10 @@
       </c>
     </row>
     <row r="82" ht="16.25" spans="1:8">
-      <c r="A82" s="11"/>
+      <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="15"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="5" t="s">
         <v>32</v>
       </c>
@@ -2901,10 +2880,10 @@
       </c>
     </row>
     <row r="83" ht="16.25" spans="1:8">
-      <c r="A83" s="11"/>
+      <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="15"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="5" t="s">
         <v>33</v>
       </c>
@@ -2919,10 +2898,10 @@
       </c>
     </row>
     <row r="84" ht="16.25" spans="1:8">
-      <c r="A84" s="11"/>
+      <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="15"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="5" t="s">
         <v>17</v>
       </c>
@@ -2937,10 +2916,10 @@
       </c>
     </row>
     <row r="85" ht="16.25" spans="1:8">
-      <c r="A85" s="11"/>
+      <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="15"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="5" t="s">
         <v>34</v>
       </c>
@@ -2955,10 +2934,10 @@
       </c>
     </row>
     <row r="86" ht="16.25" spans="1:8">
-      <c r="A86" s="11"/>
+      <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="15"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="5" t="s">
         <v>12</v>
       </c>
@@ -2973,10 +2952,10 @@
       </c>
     </row>
     <row r="87" ht="16.25" spans="1:9">
-      <c r="A87" s="11"/>
+      <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="15"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="8"/>
       <c r="E87" s="5" t="s">
         <v>35</v>
       </c>
@@ -2989,13 +2968,13 @@
       <c r="H87" s="1">
         <v>97.396</v>
       </c>
-      <c r="I87" s="23"/>
+      <c r="I87" s="16"/>
     </row>
     <row r="88" ht="16.25" spans="1:9">
-      <c r="A88" s="11"/>
+      <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="15"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="5" t="s">
         <v>36</v>
       </c>
@@ -3008,13 +2987,13 @@
       <c r="H88" s="1">
         <v>97.917</v>
       </c>
-      <c r="I88" s="23"/>
+      <c r="I88" s="16"/>
     </row>
     <row r="89" ht="16.25" spans="1:8">
-      <c r="A89" s="11"/>
+      <c r="A89" s="2"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="17"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="9"/>
       <c r="E89" s="5" t="s">
         <v>10</v>
       </c>
@@ -3028,13 +3007,13 @@
         <v>97.396</v>
       </c>
     </row>
-    <row r="90" ht="16.25" spans="1:9">
-      <c r="A90" s="11"/>
-      <c r="B90" s="18" t="s">
+    <row r="90" ht="16.25" spans="1:10">
+      <c r="A90" s="2"/>
+      <c r="B90" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C90" s="19"/>
-      <c r="D90" s="15" t="s">
+      <c r="C90" s="12"/>
+      <c r="D90" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="5" t="s">
@@ -3045,15 +3024,18 @@
       <c r="H90" s="1">
         <v>97.396</v>
       </c>
-      <c r="I90" s="24" t="s">
+      <c r="I90" s="17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="91" ht="16.25" spans="1:9">
-      <c r="A91" s="11"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="15"/>
+      <c r="J90" s="1">
+        <v>95.833</v>
+      </c>
+    </row>
+    <row r="91" ht="16.25" spans="1:10">
+      <c r="A91" s="2"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="8"/>
       <c r="E91" s="5" t="s">
         <v>7</v>
       </c>
@@ -3062,15 +3044,18 @@
       <c r="H91" s="1">
         <v>86.979</v>
       </c>
-      <c r="I91" s="24" t="s">
+      <c r="I91" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" ht="16.25" spans="1:9">
-      <c r="A92" s="11"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="15"/>
+      <c r="J91" s="1">
+        <v>95.833</v>
+      </c>
+    </row>
+    <row r="92" ht="16.25" spans="1:10">
+      <c r="A92" s="2"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="8"/>
       <c r="E92" s="5" t="s">
         <v>7</v>
       </c>
@@ -3079,15 +3064,18 @@
       <c r="H92" s="1">
         <v>75.521</v>
       </c>
-      <c r="I92" s="24">
+      <c r="I92" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" ht="16.25" spans="1:9">
-      <c r="A93" s="11"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="15"/>
+      <c r="J92" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" ht="16.25" spans="1:10">
+      <c r="A93" s="2"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="8"/>
       <c r="E93" s="5" t="s">
         <v>7</v>
       </c>
@@ -3096,15 +3084,18 @@
       <c r="H93" s="1">
         <v>81.771</v>
       </c>
-      <c r="I93" s="24">
+      <c r="I93" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="94" ht="16.25" spans="1:9">
-      <c r="A94" s="11"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="17"/>
+      <c r="J93" s="1">
+        <v>96.354</v>
+      </c>
+    </row>
+    <row r="94" ht="16.25" spans="1:10">
+      <c r="A94" s="2"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="9"/>
       <c r="E94" s="5" t="s">
         <v>7</v>
       </c>
@@ -3113,8 +3104,11 @@
       <c r="H94" s="1">
         <v>62.5</v>
       </c>
-      <c r="I94" s="24" t="s">
+      <c r="I94" s="17" t="s">
         <v>13</v>
+      </c>
+      <c r="J94" s="1">
+        <v>93.75</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:8">
@@ -3151,13 +3145,13 @@
       <c r="E103" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F103" s="22">
+      <c r="F103" s="15">
         <v>85.938</v>
       </c>
-      <c r="G103" s="22">
+      <c r="G103" s="15">
         <v>63.021</v>
       </c>
-      <c r="H103" s="22">
+      <c r="H103" s="15">
         <v>93.229</v>
       </c>
     </row>
@@ -3243,11 +3237,11 @@
       <c r="E108" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F108" s="22">
+      <c r="F108" s="15">
         <v>95.833</v>
       </c>
-      <c r="G108" s="22"/>
-      <c r="H108" s="22">
+      <c r="G108" s="15"/>
+      <c r="H108" s="15">
         <v>92.708</v>
       </c>
     </row>
@@ -3641,11 +3635,11 @@
       <c r="E131" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F131" s="22">
+      <c r="F131" s="15">
         <v>90.625</v>
       </c>
-      <c r="G131" s="22"/>
-      <c r="H131" s="22"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
     </row>
     <row r="132" ht="16.25" spans="1:8">
       <c r="A132" s="3"/>
@@ -3655,13 +3649,13 @@
       <c r="E132" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F132" s="22">
+      <c r="F132" s="15">
         <v>92.188</v>
       </c>
-      <c r="G132" s="22">
+      <c r="G132" s="15">
         <v>88.021</v>
       </c>
-      <c r="H132" s="22">
+      <c r="H132" s="15">
         <v>96.875</v>
       </c>
     </row>
@@ -3693,13 +3687,13 @@
       <c r="E134" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F134" s="22">
+      <c r="F134" s="15">
         <v>98.958</v>
       </c>
-      <c r="G134" s="22">
+      <c r="G134" s="15">
         <v>89.583</v>
       </c>
-      <c r="H134" s="22">
+      <c r="H134" s="15">
         <v>95.833</v>
       </c>
     </row>
@@ -3711,11 +3705,11 @@
       <c r="E135" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F135" s="22">
+      <c r="F135" s="15">
         <v>98.958</v>
       </c>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22">
+      <c r="G135" s="15"/>
+      <c r="H135" s="15">
         <v>95.321</v>
       </c>
     </row>
@@ -3749,13 +3743,13 @@
       <c r="E137" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F137" s="22">
+      <c r="F137" s="15">
         <v>91.667</v>
       </c>
-      <c r="G137" s="22">
+      <c r="G137" s="15">
         <v>76.562</v>
       </c>
-      <c r="H137" s="22">
+      <c r="H137" s="15">
         <v>95.833</v>
       </c>
     </row>
@@ -3767,13 +3761,13 @@
       <c r="E138" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F138" s="22">
+      <c r="F138" s="15">
         <v>89.062</v>
       </c>
-      <c r="G138" s="22">
+      <c r="G138" s="15">
         <v>85.938</v>
       </c>
-      <c r="H138" s="22">
+      <c r="H138" s="15">
         <v>93.75</v>
       </c>
     </row>
@@ -3785,13 +3779,13 @@
       <c r="E139" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F139" s="22">
+      <c r="F139" s="15">
         <v>95.833</v>
       </c>
-      <c r="G139" s="22">
+      <c r="G139" s="15">
         <v>81.25</v>
       </c>
-      <c r="H139" s="22">
+      <c r="H139" s="15">
         <v>94.792</v>
       </c>
     </row>
@@ -3823,13 +3817,13 @@
       <c r="E141" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F141" s="22">
+      <c r="F141" s="15">
         <v>99.479</v>
       </c>
-      <c r="G141" s="22">
+      <c r="G141" s="15">
         <v>76.562</v>
       </c>
-      <c r="H141" s="22">
+      <c r="H141" s="15">
         <v>93.75</v>
       </c>
     </row>
@@ -3841,13 +3835,13 @@
       <c r="E142" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F142" s="22">
+      <c r="F142" s="15">
         <v>100</v>
       </c>
-      <c r="G142" s="22">
+      <c r="G142" s="15">
         <v>85.938</v>
       </c>
-      <c r="H142" s="22">
+      <c r="H142" s="15">
         <v>93.705</v>
       </c>
     </row>
@@ -3859,11 +3853,11 @@
       <c r="E143" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F143" s="22"/>
-      <c r="G143" s="22">
+      <c r="F143" s="15"/>
+      <c r="G143" s="15">
         <v>81.25</v>
       </c>
-      <c r="H143" s="22">
+      <c r="H143" s="15">
         <v>96.354</v>
       </c>
     </row>
@@ -3875,11 +3869,11 @@
       <c r="E144" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F144" s="22"/>
-      <c r="G144" s="22">
+      <c r="F144" s="15"/>
+      <c r="G144" s="15">
         <v>88.021</v>
       </c>
-      <c r="H144" s="22">
+      <c r="H144" s="15">
         <v>94.792</v>
       </c>
     </row>
@@ -3891,11 +3885,11 @@
       <c r="E145" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F145" s="22"/>
-      <c r="G145" s="22">
+      <c r="F145" s="15"/>
+      <c r="G145" s="15">
         <v>86.458</v>
       </c>
-      <c r="H145" s="22">
+      <c r="H145" s="15">
         <v>93.75</v>
       </c>
     </row>
@@ -3907,11 +3901,11 @@
       <c r="E146" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F146" s="22"/>
-      <c r="G146" s="22">
+      <c r="F146" s="15"/>
+      <c r="G146" s="15">
         <v>81.25</v>
       </c>
-      <c r="H146" s="22">
+      <c r="H146" s="15">
         <v>95.312</v>
       </c>
     </row>
@@ -3923,9 +3917,9 @@
       <c r="E147" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F147" s="22"/>
-      <c r="G147" s="22"/>
-      <c r="H147" s="22">
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15">
         <v>93.229</v>
       </c>
     </row>
@@ -3937,9 +3931,9 @@
       <c r="E148" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F148" s="22"/>
-      <c r="G148" s="22"/>
-      <c r="H148" s="22">
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15">
         <v>96.354</v>
       </c>
     </row>
@@ -3951,9 +3945,9 @@
       <c r="E149" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F149" s="22"/>
-      <c r="G149" s="22"/>
-      <c r="H149" s="22">
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15">
         <v>95.833</v>
       </c>
     </row>
@@ -3989,7 +3983,7 @@
       <c r="G151" s="1">
         <v>81.25</v>
       </c>
-      <c r="H151" s="22"/>
+      <c r="H151" s="15"/>
     </row>
     <row r="152" ht="16.25" spans="1:8">
       <c r="A152" s="3"/>
